--- a/Tests/Validation/Wheat/data/FAR HYC W17-02-2.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W17-02-2.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Observed" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Tests/Validation/Wheat/data/FAR HYC W17-02-2.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W17-02-2.xlsx
@@ -493,12 +493,12 @@
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.TotalStemPopn</t>
+          <t>Wheat.Leaf.StemPopulation</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.TotalStemPopn.se</t>
+          <t>Wheat.Leaf.StemPopulation.se</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR HYC W17-02-2.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W17-02-2.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,7 +502,7 @@
       </c>
       <c r="M1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>NDVI.Value</t>
         </is>
       </c>
       <c r="N1" s="2" t="inlineStr">
@@ -566,7 +567,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -602,7 +603,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -638,7 +639,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -674,7 +675,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -710,7 +711,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -746,7 +747,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -782,7 +783,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -818,7 +819,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -854,7 +855,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -890,7 +891,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -926,7 +927,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -960,7 +961,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -994,7 +995,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1030,7 +1031,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1066,7 +1067,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -1110,7 +1111,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -1166,7 +1167,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1202,7 +1203,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1238,7 +1239,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1274,7 +1275,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1310,7 +1311,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1346,7 +1347,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1382,7 +1383,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1418,7 +1419,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1454,7 +1455,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1490,7 +1491,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1526,7 +1527,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1560,7 +1561,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1594,7 +1595,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1630,7 +1631,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1666,7 +1667,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -1710,7 +1711,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -1766,7 +1767,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1802,7 +1803,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1838,7 +1839,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1874,7 +1875,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1910,7 +1911,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1946,7 +1947,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1982,7 +1983,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2018,7 +2019,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2054,7 +2055,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2090,7 +2091,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2126,7 +2127,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2160,7 +2161,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2194,7 +2195,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2230,7 +2231,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2266,7 +2267,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C48" t="inlineStr">
@@ -2310,7 +2311,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -2366,7 +2367,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2402,7 +2403,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2438,7 +2439,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2474,7 +2475,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2510,7 +2511,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2546,7 +2547,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2582,7 +2583,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2618,7 +2619,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2654,7 +2655,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2690,7 +2691,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2726,7 +2727,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2760,7 +2761,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2794,7 +2795,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2830,7 +2831,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2866,7 +2867,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -2910,7 +2911,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C65" t="inlineStr">
@@ -2966,7 +2967,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -3002,7 +3003,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3038,7 +3039,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3074,7 +3075,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3110,7 +3111,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3146,7 +3147,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3182,7 +3183,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3218,7 +3219,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3254,7 +3255,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3290,7 +3291,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3326,7 +3327,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3360,7 +3361,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3394,7 +3395,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3430,7 +3431,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3466,7 +3467,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C80" t="inlineStr">
@@ -3510,7 +3511,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C81" t="inlineStr">
@@ -3566,7 +3567,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3602,7 +3603,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3638,7 +3639,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3674,7 +3675,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3710,7 +3711,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3746,7 +3747,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3782,7 +3783,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3818,7 +3819,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -3854,7 +3855,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -3890,7 +3891,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3926,7 +3927,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -3960,7 +3961,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -3994,7 +3995,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -4030,7 +4031,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4066,7 +4067,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C96" t="inlineStr">
@@ -4110,7 +4111,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C97" t="inlineStr">
@@ -4166,7 +4167,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4202,7 +4203,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4238,7 +4239,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4274,7 +4275,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4310,7 +4311,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4346,7 +4347,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4382,7 +4383,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4418,7 +4419,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4454,7 +4455,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4490,7 +4491,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4526,7 +4527,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4560,7 +4561,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4594,7 +4595,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4630,7 +4631,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4666,7 +4667,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C112" t="inlineStr">
@@ -4710,7 +4711,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C113" t="inlineStr">
@@ -4766,7 +4767,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -4802,7 +4803,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -4838,7 +4839,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -4874,7 +4875,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -4910,7 +4911,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -4946,7 +4947,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -4982,7 +4983,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -5018,7 +5019,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -5054,7 +5055,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -5090,7 +5091,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -5126,7 +5127,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -5160,7 +5161,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -5194,7 +5195,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5230,7 +5231,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B127" s="3" t="n">
+      <c r="B127" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5266,7 +5267,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B128" s="3" t="n">
+      <c r="B128" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C128" t="inlineStr">
@@ -5310,7 +5311,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B129" s="3" t="n">
+      <c r="B129" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C129" t="inlineStr">
@@ -5366,7 +5367,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B130" s="3" t="n">
+      <c r="B130" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5402,7 +5403,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B131" s="3" t="n">
+      <c r="B131" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -5438,7 +5439,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B132" s="3" t="n">
+      <c r="B132" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -5474,7 +5475,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B133" s="3" t="n">
+      <c r="B133" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5510,7 +5511,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B134" s="3" t="n">
+      <c r="B134" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -5546,7 +5547,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B135" s="3" t="n">
+      <c r="B135" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -5582,7 +5583,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B136" s="3" t="n">
+      <c r="B136" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -5618,7 +5619,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B137" s="3" t="n">
+      <c r="B137" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -5654,7 +5655,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B138" s="3" t="n">
+      <c r="B138" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -5690,7 +5691,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B139" s="3" t="n">
+      <c r="B139" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -5726,7 +5727,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B140" s="3" t="n">
+      <c r="B140" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -5760,7 +5761,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B141" s="3" t="n">
+      <c r="B141" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -5794,7 +5795,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B142" s="3" t="n">
+      <c r="B142" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -5830,7 +5831,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B143" s="3" t="n">
+      <c r="B143" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -5866,7 +5867,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B144" s="3" t="n">
+      <c r="B144" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C144" t="inlineStr">
@@ -5910,7 +5911,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B145" s="3" t="n">
+      <c r="B145" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C145" t="inlineStr">
@@ -5966,7 +5967,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B146" s="3" t="n">
+      <c r="B146" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -6002,7 +6003,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B147" s="3" t="n">
+      <c r="B147" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -6038,7 +6039,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B148" s="3" t="n">
+      <c r="B148" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -6074,7 +6075,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B149" s="3" t="n">
+      <c r="B149" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -6110,7 +6111,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B150" s="3" t="n">
+      <c r="B150" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -6146,7 +6147,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B151" s="3" t="n">
+      <c r="B151" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -6182,7 +6183,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B152" s="3" t="n">
+      <c r="B152" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -6218,7 +6219,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B153" s="3" t="n">
+      <c r="B153" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -6254,7 +6255,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B154" s="3" t="n">
+      <c r="B154" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -6290,7 +6291,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B155" s="3" t="n">
+      <c r="B155" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -6326,7 +6327,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B156" s="3" t="n">
+      <c r="B156" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -6360,7 +6361,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B157" s="3" t="n">
+      <c r="B157" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -6394,7 +6395,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B158" s="3" t="n">
+      <c r="B158" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -6430,7 +6431,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B159" s="3" t="n">
+      <c r="B159" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -6466,7 +6467,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B160" s="3" t="n">
+      <c r="B160" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C160" t="inlineStr">
@@ -6510,7 +6511,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B161" s="3" t="n">
+      <c r="B161" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C161" t="inlineStr">
@@ -6566,7 +6567,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B162" s="3" t="n">
+      <c r="B162" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -6602,7 +6603,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B163" s="3" t="n">
+      <c r="B163" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -6638,7 +6639,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B164" s="3" t="n">
+      <c r="B164" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -6674,7 +6675,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B165" s="3" t="n">
+      <c r="B165" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -6710,7 +6711,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B166" s="3" t="n">
+      <c r="B166" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -6746,7 +6747,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B167" s="3" t="n">
+      <c r="B167" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -6782,7 +6783,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B168" s="3" t="n">
+      <c r="B168" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -6818,7 +6819,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B169" s="3" t="n">
+      <c r="B169" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -6854,7 +6855,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B170" s="3" t="n">
+      <c r="B170" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -6890,7 +6891,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B171" s="3" t="n">
+      <c r="B171" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -6926,7 +6927,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B172" s="3" t="n">
+      <c r="B172" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -6960,7 +6961,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B173" s="3" t="n">
+      <c r="B173" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -6994,7 +6995,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B174" s="3" t="n">
+      <c r="B174" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -7030,7 +7031,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B175" s="3" t="n">
+      <c r="B175" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -7066,7 +7067,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B176" s="3" t="n">
+      <c r="B176" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C176" t="inlineStr">
@@ -7110,7 +7111,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B177" s="3" t="n">
+      <c r="B177" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C177" t="inlineStr">
@@ -7166,7 +7167,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B178" s="3" t="n">
+      <c r="B178" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -7202,7 +7203,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B179" s="3" t="n">
+      <c r="B179" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -7238,7 +7239,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B180" s="3" t="n">
+      <c r="B180" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -7274,7 +7275,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B181" s="3" t="n">
+      <c r="B181" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -7310,7 +7311,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B182" s="3" t="n">
+      <c r="B182" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -7346,7 +7347,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B183" s="3" t="n">
+      <c r="B183" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -7382,7 +7383,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B184" s="3" t="n">
+      <c r="B184" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -7418,7 +7419,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B185" s="3" t="n">
+      <c r="B185" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -7454,7 +7455,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B186" s="3" t="n">
+      <c r="B186" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -7490,7 +7491,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B187" s="3" t="n">
+      <c r="B187" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -7526,7 +7527,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B188" s="3" t="n">
+      <c r="B188" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -7560,7 +7561,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B189" s="3" t="n">
+      <c r="B189" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -7594,7 +7595,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B190" s="3" t="n">
+      <c r="B190" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -7630,7 +7631,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B191" s="3" t="n">
+      <c r="B191" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -7666,7 +7667,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B192" s="3" t="n">
+      <c r="B192" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C192" t="inlineStr">
@@ -7710,7 +7711,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B193" s="3" t="n">
+      <c r="B193" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C193" t="inlineStr">
@@ -7766,7 +7767,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B194" s="3" t="n">
+      <c r="B194" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -7802,7 +7803,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B195" s="3" t="n">
+      <c r="B195" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -7838,7 +7839,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B196" s="3" t="n">
+      <c r="B196" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -7874,7 +7875,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B197" s="3" t="n">
+      <c r="B197" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -7910,7 +7911,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B198" s="3" t="n">
+      <c r="B198" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -7946,7 +7947,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B199" s="3" t="n">
+      <c r="B199" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -7982,7 +7983,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B200" s="3" t="n">
+      <c r="B200" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -8018,7 +8019,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B201" s="3" t="n">
+      <c r="B201" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -8054,7 +8055,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B202" s="3" t="n">
+      <c r="B202" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -8090,7 +8091,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B203" s="3" t="n">
+      <c r="B203" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -8126,7 +8127,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B204" s="3" t="n">
+      <c r="B204" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -8160,7 +8161,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B205" s="3" t="n">
+      <c r="B205" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -8194,7 +8195,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B206" s="3" t="n">
+      <c r="B206" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -8230,7 +8231,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B207" s="3" t="n">
+      <c r="B207" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -8266,7 +8267,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B208" s="3" t="n">
+      <c r="B208" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C208" t="inlineStr">
@@ -8310,7 +8311,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B209" s="3" t="n">
+      <c r="B209" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C209" t="inlineStr">
@@ -8366,7 +8367,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B210" s="3" t="n">
+      <c r="B210" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -8402,7 +8403,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B211" s="3" t="n">
+      <c r="B211" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -8438,7 +8439,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B212" s="3" t="n">
+      <c r="B212" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -8474,7 +8475,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B213" s="3" t="n">
+      <c r="B213" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -8510,7 +8511,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B214" s="3" t="n">
+      <c r="B214" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -8546,7 +8547,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B215" s="3" t="n">
+      <c r="B215" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -8582,7 +8583,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B216" s="3" t="n">
+      <c r="B216" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -8618,7 +8619,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B217" s="3" t="n">
+      <c r="B217" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -8654,7 +8655,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B218" s="3" t="n">
+      <c r="B218" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -8690,7 +8691,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B219" s="3" t="n">
+      <c r="B219" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -8726,7 +8727,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B220" s="3" t="n">
+      <c r="B220" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -8760,7 +8761,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B221" s="3" t="n">
+      <c r="B221" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -8794,7 +8795,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B222" s="3" t="n">
+      <c r="B222" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -8830,7 +8831,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B223" s="3" t="n">
+      <c r="B223" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -8866,7 +8867,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B224" s="3" t="n">
+      <c r="B224" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C224" t="inlineStr">
@@ -8910,7 +8911,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B225" s="3" t="n">
+      <c r="B225" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C225" t="inlineStr">
@@ -8966,7 +8967,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B226" s="3" t="n">
+      <c r="B226" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -9002,7 +9003,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B227" s="3" t="n">
+      <c r="B227" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -9038,7 +9039,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B228" s="3" t="n">
+      <c r="B228" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -9074,7 +9075,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B229" s="3" t="n">
+      <c r="B229" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -9110,7 +9111,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B230" s="3" t="n">
+      <c r="B230" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -9146,7 +9147,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B231" s="3" t="n">
+      <c r="B231" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -9182,7 +9183,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B232" s="3" t="n">
+      <c r="B232" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -9218,7 +9219,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B233" s="3" t="n">
+      <c r="B233" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -9254,7 +9255,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B234" s="3" t="n">
+      <c r="B234" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -9290,7 +9291,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B235" s="3" t="n">
+      <c r="B235" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -9326,7 +9327,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B236" s="3" t="n">
+      <c r="B236" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -9360,7 +9361,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B237" s="3" t="n">
+      <c r="B237" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -9394,7 +9395,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B238" s="3" t="n">
+      <c r="B238" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -9430,7 +9431,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B239" s="3" t="n">
+      <c r="B239" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -9466,7 +9467,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B240" s="3" t="n">
+      <c r="B240" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C240" t="inlineStr">
@@ -9510,7 +9511,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B241" s="3" t="n">
+      <c r="B241" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C241" t="inlineStr">
@@ -9566,7 +9567,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B242" s="3" t="n">
+      <c r="B242" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -9602,7 +9603,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B243" s="3" t="n">
+      <c r="B243" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C243" t="inlineStr"/>
@@ -9638,7 +9639,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B244" s="3" t="n">
+      <c r="B244" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -9674,7 +9675,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B245" s="3" t="n">
+      <c r="B245" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C245" t="inlineStr"/>
@@ -9710,7 +9711,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B246" s="3" t="n">
+      <c r="B246" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -9746,7 +9747,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B247" s="3" t="n">
+      <c r="B247" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C247" t="inlineStr"/>
@@ -9782,7 +9783,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B248" s="3" t="n">
+      <c r="B248" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C248" t="inlineStr"/>
@@ -9818,7 +9819,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B249" s="3" t="n">
+      <c r="B249" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -9854,7 +9855,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B250" s="3" t="n">
+      <c r="B250" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -9890,7 +9891,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B251" s="3" t="n">
+      <c r="B251" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C251" t="inlineStr"/>
@@ -9926,7 +9927,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B252" s="3" t="n">
+      <c r="B252" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C252" t="inlineStr"/>
@@ -9960,7 +9961,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B253" s="3" t="n">
+      <c r="B253" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C253" t="inlineStr"/>
@@ -9994,7 +9995,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B254" s="3" t="n">
+      <c r="B254" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -10030,7 +10031,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B255" s="3" t="n">
+      <c r="B255" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C255" t="inlineStr"/>
@@ -10066,7 +10067,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B256" s="3" t="n">
+      <c r="B256" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C256" t="inlineStr">
@@ -10110,7 +10111,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B257" s="3" t="n">
+      <c r="B257" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C257" t="inlineStr">
@@ -10166,7 +10167,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B258" s="3" t="n">
+      <c r="B258" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C258" t="inlineStr"/>
@@ -10202,7 +10203,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B259" s="3" t="n">
+      <c r="B259" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C259" t="inlineStr"/>
@@ -10238,7 +10239,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B260" s="3" t="n">
+      <c r="B260" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C260" t="inlineStr"/>
@@ -10274,7 +10275,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B261" s="3" t="n">
+      <c r="B261" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -10310,7 +10311,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B262" s="3" t="n">
+      <c r="B262" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C262" t="inlineStr"/>
@@ -10346,7 +10347,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B263" s="3" t="n">
+      <c r="B263" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -10382,7 +10383,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B264" s="3" t="n">
+      <c r="B264" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C264" t="inlineStr"/>
@@ -10418,7 +10419,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B265" s="3" t="n">
+      <c r="B265" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C265" t="inlineStr"/>
@@ -10454,7 +10455,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B266" s="3" t="n">
+      <c r="B266" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C266" t="inlineStr"/>
@@ -10490,7 +10491,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B267" s="3" t="n">
+      <c r="B267" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C267" t="inlineStr"/>
@@ -10526,7 +10527,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B268" s="3" t="n">
+      <c r="B268" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C268" t="inlineStr"/>
@@ -10560,7 +10561,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B269" s="3" t="n">
+      <c r="B269" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C269" t="inlineStr"/>
@@ -10594,7 +10595,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B270" s="3" t="n">
+      <c r="B270" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C270" t="inlineStr"/>
@@ -10630,7 +10631,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B271" s="3" t="n">
+      <c r="B271" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C271" t="inlineStr"/>
@@ -10666,7 +10667,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B272" s="3" t="n">
+      <c r="B272" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C272" t="inlineStr">
@@ -10710,7 +10711,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B273" s="3" t="n">
+      <c r="B273" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C273" t="inlineStr">
@@ -10766,7 +10767,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B274" s="3" t="n">
+      <c r="B274" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C274" t="inlineStr"/>
@@ -10802,7 +10803,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B275" s="3" t="n">
+      <c r="B275" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C275" t="inlineStr"/>
@@ -10838,7 +10839,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B276" s="3" t="n">
+      <c r="B276" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C276" t="inlineStr"/>
@@ -10874,7 +10875,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B277" s="3" t="n">
+      <c r="B277" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C277" t="inlineStr"/>
@@ -10910,7 +10911,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B278" s="3" t="n">
+      <c r="B278" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C278" t="inlineStr"/>
@@ -10946,7 +10947,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B279" s="3" t="n">
+      <c r="B279" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C279" t="inlineStr"/>
@@ -10982,7 +10983,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B280" s="3" t="n">
+      <c r="B280" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C280" t="inlineStr"/>
@@ -11018,7 +11019,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B281" s="3" t="n">
+      <c r="B281" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C281" t="inlineStr"/>
@@ -11054,7 +11055,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B282" s="3" t="n">
+      <c r="B282" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C282" t="inlineStr"/>
@@ -11090,7 +11091,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B283" s="3" t="n">
+      <c r="B283" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C283" t="inlineStr"/>
@@ -11126,7 +11127,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B284" s="3" t="n">
+      <c r="B284" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C284" t="inlineStr"/>
@@ -11160,7 +11161,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B285" s="3" t="n">
+      <c r="B285" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C285" t="inlineStr"/>
@@ -11194,7 +11195,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B286" s="3" t="n">
+      <c r="B286" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C286" t="inlineStr"/>
@@ -11230,7 +11231,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B287" s="3" t="n">
+      <c r="B287" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C287" t="inlineStr"/>
@@ -11266,7 +11267,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B288" s="3" t="n">
+      <c r="B288" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C288" t="inlineStr">
@@ -11310,7 +11311,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B289" s="3" t="n">
+      <c r="B289" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C289" t="inlineStr">
@@ -11366,7 +11367,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B290" s="3" t="n">
+      <c r="B290" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C290" t="inlineStr"/>
@@ -11402,7 +11403,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B291" s="3" t="n">
+      <c r="B291" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C291" t="inlineStr"/>
@@ -11438,7 +11439,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B292" s="3" t="n">
+      <c r="B292" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C292" t="inlineStr"/>
@@ -11474,7 +11475,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B293" s="3" t="n">
+      <c r="B293" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C293" t="inlineStr"/>
@@ -11510,7 +11511,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B294" s="3" t="n">
+      <c r="B294" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C294" t="inlineStr"/>
@@ -11546,7 +11547,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B295" s="3" t="n">
+      <c r="B295" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C295" t="inlineStr"/>
@@ -11582,7 +11583,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B296" s="3" t="n">
+      <c r="B296" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C296" t="inlineStr"/>
@@ -11618,7 +11619,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B297" s="3" t="n">
+      <c r="B297" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C297" t="inlineStr"/>
@@ -11654,7 +11655,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B298" s="3" t="n">
+      <c r="B298" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C298" t="inlineStr"/>
@@ -11690,7 +11691,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B299" s="3" t="n">
+      <c r="B299" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C299" t="inlineStr"/>
@@ -11726,7 +11727,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B300" s="3" t="n">
+      <c r="B300" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C300" t="inlineStr"/>
@@ -11760,7 +11761,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B301" s="3" t="n">
+      <c r="B301" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C301" t="inlineStr"/>
@@ -11794,7 +11795,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B302" s="3" t="n">
+      <c r="B302" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C302" t="inlineStr"/>
@@ -11830,7 +11831,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B303" s="3" t="n">
+      <c r="B303" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C303" t="inlineStr"/>
@@ -11866,7 +11867,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B304" s="3" t="n">
+      <c r="B304" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C304" t="inlineStr">
@@ -11910,7 +11911,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B305" s="3" t="n">
+      <c r="B305" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C305" t="inlineStr">
@@ -11966,7 +11967,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B306" s="3" t="n">
+      <c r="B306" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C306" t="inlineStr"/>
@@ -12002,7 +12003,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B307" s="3" t="n">
+      <c r="B307" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C307" t="inlineStr"/>
@@ -12038,7 +12039,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B308" s="3" t="n">
+      <c r="B308" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C308" t="inlineStr"/>
@@ -12074,7 +12075,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B309" s="3" t="n">
+      <c r="B309" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C309" t="inlineStr"/>
@@ -12110,7 +12111,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B310" s="3" t="n">
+      <c r="B310" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C310" t="inlineStr"/>
@@ -12146,7 +12147,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B311" s="3" t="n">
+      <c r="B311" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C311" t="inlineStr"/>
@@ -12182,7 +12183,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B312" s="3" t="n">
+      <c r="B312" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C312" t="inlineStr"/>
@@ -12218,7 +12219,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B313" s="3" t="n">
+      <c r="B313" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C313" t="inlineStr"/>
@@ -12254,7 +12255,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B314" s="3" t="n">
+      <c r="B314" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C314" t="inlineStr"/>
@@ -12290,7 +12291,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B315" s="3" t="n">
+      <c r="B315" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C315" t="inlineStr"/>
@@ -12326,7 +12327,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B316" s="3" t="n">
+      <c r="B316" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C316" t="inlineStr"/>
@@ -12360,7 +12361,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B317" s="3" t="n">
+      <c r="B317" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C317" t="inlineStr"/>
@@ -12394,7 +12395,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B318" s="3" t="n">
+      <c r="B318" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C318" t="inlineStr"/>
@@ -12430,7 +12431,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B319" s="3" t="n">
+      <c r="B319" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C319" t="inlineStr"/>
@@ -12466,7 +12467,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B320" s="3" t="n">
+      <c r="B320" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C320" t="inlineStr">
@@ -12510,7 +12511,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B321" s="3" t="n">
+      <c r="B321" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C321" t="inlineStr">
@@ -12566,7 +12567,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B322" s="3" t="n">
+      <c r="B322" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C322" t="inlineStr"/>
@@ -12602,7 +12603,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B323" s="3" t="n">
+      <c r="B323" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C323" t="inlineStr"/>
@@ -12638,7 +12639,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B324" s="3" t="n">
+      <c r="B324" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C324" t="inlineStr"/>
@@ -12674,7 +12675,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B325" s="3" t="n">
+      <c r="B325" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C325" t="inlineStr"/>
@@ -12710,7 +12711,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B326" s="3" t="n">
+      <c r="B326" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C326" t="inlineStr"/>
@@ -12746,7 +12747,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B327" s="3" t="n">
+      <c r="B327" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C327" t="inlineStr"/>
@@ -12782,7 +12783,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B328" s="3" t="n">
+      <c r="B328" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C328" t="inlineStr"/>
@@ -12818,7 +12819,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B329" s="3" t="n">
+      <c r="B329" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C329" t="inlineStr"/>
@@ -12854,7 +12855,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B330" s="3" t="n">
+      <c r="B330" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C330" t="inlineStr"/>
@@ -12890,7 +12891,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B331" s="3" t="n">
+      <c r="B331" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C331" t="inlineStr"/>
@@ -12926,7 +12927,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B332" s="3" t="n">
+      <c r="B332" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C332" t="inlineStr"/>
@@ -12960,7 +12961,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B333" s="3" t="n">
+      <c r="B333" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C333" t="inlineStr"/>
@@ -12994,7 +12995,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B334" s="3" t="n">
+      <c r="B334" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C334" t="inlineStr"/>
@@ -13030,7 +13031,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B335" s="3" t="n">
+      <c r="B335" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C335" t="inlineStr"/>
@@ -13066,7 +13067,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B336" s="3" t="n">
+      <c r="B336" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C336" t="inlineStr">
@@ -13110,7 +13111,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B337" s="3" t="n">
+      <c r="B337" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C337" t="inlineStr">
@@ -13166,7 +13167,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B338" s="3" t="n">
+      <c r="B338" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C338" t="inlineStr"/>
@@ -13202,7 +13203,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B339" s="3" t="n">
+      <c r="B339" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C339" t="inlineStr"/>
@@ -13238,7 +13239,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B340" s="3" t="n">
+      <c r="B340" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C340" t="inlineStr"/>
@@ -13274,7 +13275,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B341" s="3" t="n">
+      <c r="B341" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C341" t="inlineStr"/>
@@ -13310,7 +13311,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B342" s="3" t="n">
+      <c r="B342" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C342" t="inlineStr"/>
@@ -13346,7 +13347,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B343" s="3" t="n">
+      <c r="B343" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C343" t="inlineStr"/>
@@ -13382,7 +13383,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B344" s="3" t="n">
+      <c r="B344" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C344" t="inlineStr"/>
@@ -13418,7 +13419,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B345" s="3" t="n">
+      <c r="B345" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C345" t="inlineStr"/>
@@ -13454,7 +13455,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B346" s="3" t="n">
+      <c r="B346" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C346" t="inlineStr"/>
@@ -13490,7 +13491,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B347" s="3" t="n">
+      <c r="B347" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C347" t="inlineStr"/>
@@ -13526,7 +13527,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B348" s="3" t="n">
+      <c r="B348" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C348" t="inlineStr"/>
@@ -13560,7 +13561,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B349" s="3" t="n">
+      <c r="B349" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C349" t="inlineStr"/>
@@ -13594,7 +13595,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B350" s="3" t="n">
+      <c r="B350" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C350" t="inlineStr"/>
@@ -13630,7 +13631,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B351" s="3" t="n">
+      <c r="B351" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C351" t="inlineStr"/>
@@ -13666,7 +13667,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B352" s="3" t="n">
+      <c r="B352" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C352" t="inlineStr">
@@ -13710,7 +13711,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B353" s="3" t="n">
+      <c r="B353" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C353" t="inlineStr">
@@ -13766,7 +13767,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B354" s="3" t="n">
+      <c r="B354" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C354" t="inlineStr"/>
@@ -13802,7 +13803,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B355" s="3" t="n">
+      <c r="B355" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C355" t="inlineStr"/>
@@ -13838,7 +13839,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B356" s="3" t="n">
+      <c r="B356" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C356" t="inlineStr"/>
@@ -13874,7 +13875,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B357" s="3" t="n">
+      <c r="B357" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C357" t="inlineStr"/>
@@ -13910,7 +13911,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B358" s="3" t="n">
+      <c r="B358" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C358" t="inlineStr"/>
@@ -13946,7 +13947,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B359" s="3" t="n">
+      <c r="B359" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C359" t="inlineStr"/>
@@ -13982,7 +13983,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B360" s="3" t="n">
+      <c r="B360" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C360" t="inlineStr"/>
@@ -14018,7 +14019,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B361" s="3" t="n">
+      <c r="B361" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C361" t="inlineStr"/>
@@ -14054,7 +14055,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B362" s="3" t="n">
+      <c r="B362" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C362" t="inlineStr"/>
@@ -14090,7 +14091,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B363" s="3" t="n">
+      <c r="B363" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C363" t="inlineStr"/>
@@ -14126,7 +14127,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B364" s="3" t="n">
+      <c r="B364" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C364" t="inlineStr"/>
@@ -14160,7 +14161,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B365" s="3" t="n">
+      <c r="B365" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C365" t="inlineStr"/>
@@ -14194,7 +14195,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B366" s="3" t="n">
+      <c r="B366" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C366" t="inlineStr"/>
@@ -14230,7 +14231,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B367" s="3" t="n">
+      <c r="B367" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C367" t="inlineStr"/>
@@ -14266,7 +14267,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B368" s="3" t="n">
+      <c r="B368" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C368" t="inlineStr">
@@ -14310,7 +14311,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B369" s="3" t="n">
+      <c r="B369" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C369" t="inlineStr">
@@ -14366,7 +14367,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B370" s="3" t="n">
+      <c r="B370" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C370" t="inlineStr"/>
@@ -14402,7 +14403,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B371" s="3" t="n">
+      <c r="B371" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C371" t="inlineStr"/>
@@ -14438,7 +14439,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B372" s="3" t="n">
+      <c r="B372" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C372" t="inlineStr"/>
@@ -14474,7 +14475,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B373" s="3" t="n">
+      <c r="B373" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C373" t="inlineStr"/>
@@ -14510,7 +14511,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B374" s="3" t="n">
+      <c r="B374" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C374" t="inlineStr"/>
@@ -14546,7 +14547,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B375" s="3" t="n">
+      <c r="B375" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C375" t="inlineStr"/>
@@ -14582,7 +14583,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B376" s="3" t="n">
+      <c r="B376" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C376" t="inlineStr"/>
@@ -14618,7 +14619,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B377" s="3" t="n">
+      <c r="B377" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C377" t="inlineStr"/>
@@ -14654,7 +14655,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B378" s="3" t="n">
+      <c r="B378" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C378" t="inlineStr"/>
@@ -14690,7 +14691,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B379" s="3" t="n">
+      <c r="B379" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C379" t="inlineStr"/>
@@ -14726,7 +14727,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B380" s="3" t="n">
+      <c r="B380" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C380" t="inlineStr"/>
@@ -14760,7 +14761,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B381" s="3" t="n">
+      <c r="B381" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C381" t="inlineStr"/>
@@ -14794,7 +14795,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B382" s="3" t="n">
+      <c r="B382" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C382" t="inlineStr"/>
@@ -14830,7 +14831,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B383" s="3" t="n">
+      <c r="B383" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C383" t="inlineStr"/>
@@ -14866,7 +14867,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B384" s="3" t="n">
+      <c r="B384" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C384" t="inlineStr">
@@ -14910,7 +14911,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B385" s="3" t="n">
+      <c r="B385" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C385" t="inlineStr">
@@ -14966,7 +14967,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B386" s="3" t="n">
+      <c r="B386" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C386" t="inlineStr"/>
@@ -15002,7 +15003,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B387" s="3" t="n">
+      <c r="B387" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C387" t="inlineStr"/>
@@ -15038,7 +15039,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B388" s="3" t="n">
+      <c r="B388" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C388" t="inlineStr"/>
@@ -15074,7 +15075,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B389" s="3" t="n">
+      <c r="B389" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C389" t="inlineStr"/>
@@ -15110,7 +15111,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B390" s="3" t="n">
+      <c r="B390" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C390" t="inlineStr"/>
@@ -15146,7 +15147,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B391" s="3" t="n">
+      <c r="B391" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C391" t="inlineStr"/>
@@ -15182,7 +15183,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B392" s="3" t="n">
+      <c r="B392" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C392" t="inlineStr"/>
@@ -15218,7 +15219,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B393" s="3" t="n">
+      <c r="B393" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C393" t="inlineStr"/>
@@ -15254,7 +15255,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B394" s="3" t="n">
+      <c r="B394" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C394" t="inlineStr"/>
@@ -15290,7 +15291,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B395" s="3" t="n">
+      <c r="B395" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C395" t="inlineStr"/>
@@ -15326,7 +15327,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B396" s="3" t="n">
+      <c r="B396" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C396" t="inlineStr"/>
@@ -15360,7 +15361,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B397" s="3" t="n">
+      <c r="B397" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C397" t="inlineStr"/>
@@ -15394,7 +15395,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B398" s="3" t="n">
+      <c r="B398" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C398" t="inlineStr"/>
@@ -15430,7 +15431,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B399" s="3" t="n">
+      <c r="B399" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C399" t="inlineStr"/>
@@ -15466,7 +15467,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B400" s="3" t="n">
+      <c r="B400" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C400" t="inlineStr">
@@ -15510,7 +15511,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B401" s="3" t="n">
+      <c r="B401" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C401" t="inlineStr">
@@ -15566,7 +15567,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B402" s="3" t="n">
+      <c r="B402" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C402" t="inlineStr"/>
@@ -15602,7 +15603,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B403" s="3" t="n">
+      <c r="B403" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C403" t="inlineStr"/>
@@ -15638,7 +15639,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B404" s="3" t="n">
+      <c r="B404" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C404" t="inlineStr"/>
@@ -15674,7 +15675,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B405" s="3" t="n">
+      <c r="B405" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C405" t="inlineStr"/>
@@ -15710,7 +15711,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B406" s="3" t="n">
+      <c r="B406" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C406" t="inlineStr"/>
@@ -15746,7 +15747,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B407" s="3" t="n">
+      <c r="B407" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C407" t="inlineStr"/>
@@ -15782,7 +15783,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B408" s="3" t="n">
+      <c r="B408" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C408" t="inlineStr"/>
@@ -15818,7 +15819,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B409" s="3" t="n">
+      <c r="B409" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C409" t="inlineStr"/>
@@ -15854,7 +15855,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B410" s="3" t="n">
+      <c r="B410" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C410" t="inlineStr"/>
@@ -15890,7 +15891,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B411" s="3" t="n">
+      <c r="B411" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C411" t="inlineStr"/>
@@ -15926,7 +15927,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B412" s="3" t="n">
+      <c r="B412" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C412" t="inlineStr"/>
@@ -15960,7 +15961,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B413" s="3" t="n">
+      <c r="B413" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C413" t="inlineStr"/>
@@ -15994,7 +15995,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B414" s="3" t="n">
+      <c r="B414" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C414" t="inlineStr"/>
@@ -16030,7 +16031,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B415" s="3" t="n">
+      <c r="B415" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C415" t="inlineStr"/>
@@ -16066,7 +16067,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B416" s="3" t="n">
+      <c r="B416" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C416" t="inlineStr">
@@ -16110,7 +16111,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B417" s="3" t="n">
+      <c r="B417" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C417" t="inlineStr">
@@ -16166,7 +16167,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B418" s="3" t="n">
+      <c r="B418" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C418" t="inlineStr"/>
@@ -16202,7 +16203,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B419" s="3" t="n">
+      <c r="B419" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C419" t="inlineStr"/>
@@ -16238,7 +16239,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B420" s="3" t="n">
+      <c r="B420" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C420" t="inlineStr"/>
@@ -16274,7 +16275,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B421" s="3" t="n">
+      <c r="B421" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C421" t="inlineStr"/>
@@ -16310,7 +16311,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B422" s="3" t="n">
+      <c r="B422" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C422" t="inlineStr"/>
@@ -16346,7 +16347,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B423" s="3" t="n">
+      <c r="B423" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C423" t="inlineStr"/>
@@ -16382,7 +16383,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B424" s="3" t="n">
+      <c r="B424" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C424" t="inlineStr"/>
@@ -16418,7 +16419,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B425" s="3" t="n">
+      <c r="B425" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C425" t="inlineStr"/>
@@ -16454,7 +16455,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B426" s="3" t="n">
+      <c r="B426" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C426" t="inlineStr"/>
@@ -16490,7 +16491,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B427" s="3" t="n">
+      <c r="B427" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C427" t="inlineStr"/>
@@ -16526,7 +16527,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B428" s="3" t="n">
+      <c r="B428" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C428" t="inlineStr"/>
@@ -16560,7 +16561,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B429" s="3" t="n">
+      <c r="B429" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C429" t="inlineStr"/>
@@ -16594,7 +16595,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B430" s="3" t="n">
+      <c r="B430" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C430" t="inlineStr"/>
@@ -16630,7 +16631,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B431" s="3" t="n">
+      <c r="B431" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C431" t="inlineStr"/>
@@ -16666,7 +16667,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B432" s="3" t="n">
+      <c r="B432" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C432" t="inlineStr">
@@ -16710,7 +16711,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B433" s="3" t="n">
+      <c r="B433" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C433" t="inlineStr">
@@ -16766,7 +16767,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B434" s="3" t="n">
+      <c r="B434" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C434" t="inlineStr"/>
@@ -16802,7 +16803,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B435" s="3" t="n">
+      <c r="B435" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C435" t="inlineStr"/>
@@ -16838,7 +16839,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B436" s="3" t="n">
+      <c r="B436" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C436" t="inlineStr"/>
@@ -16874,7 +16875,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B437" s="3" t="n">
+      <c r="B437" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C437" t="inlineStr"/>
@@ -16910,7 +16911,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B438" s="3" t="n">
+      <c r="B438" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C438" t="inlineStr"/>
@@ -16946,7 +16947,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B439" s="3" t="n">
+      <c r="B439" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C439" t="inlineStr"/>
@@ -16982,7 +16983,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B440" s="3" t="n">
+      <c r="B440" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C440" t="inlineStr"/>
@@ -17018,7 +17019,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B441" s="3" t="n">
+      <c r="B441" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C441" t="inlineStr"/>
@@ -17054,7 +17055,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B442" s="3" t="n">
+      <c r="B442" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C442" t="inlineStr"/>
@@ -17090,7 +17091,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B443" s="3" t="n">
+      <c r="B443" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C443" t="inlineStr"/>
@@ -17126,7 +17127,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B444" s="3" t="n">
+      <c r="B444" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C444" t="inlineStr"/>
@@ -17160,7 +17161,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B445" s="3" t="n">
+      <c r="B445" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C445" t="inlineStr"/>
@@ -17194,7 +17195,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B446" s="3" t="n">
+      <c r="B446" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C446" t="inlineStr"/>
@@ -17230,7 +17231,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B447" s="3" t="n">
+      <c r="B447" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C447" t="inlineStr"/>
@@ -17266,7 +17267,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B448" s="3" t="n">
+      <c r="B448" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C448" t="inlineStr">
@@ -17310,7 +17311,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B449" s="3" t="n">
+      <c r="B449" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C449" t="inlineStr">
@@ -17366,7 +17367,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B450" s="3" t="n">
+      <c r="B450" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C450" t="inlineStr"/>
@@ -17402,7 +17403,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B451" s="3" t="n">
+      <c r="B451" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C451" t="inlineStr"/>
@@ -17438,7 +17439,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B452" s="3" t="n">
+      <c r="B452" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C452" t="inlineStr"/>
@@ -17474,7 +17475,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B453" s="3" t="n">
+      <c r="B453" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C453" t="inlineStr"/>
@@ -17510,7 +17511,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B454" s="3" t="n">
+      <c r="B454" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C454" t="inlineStr"/>
@@ -17546,7 +17547,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B455" s="3" t="n">
+      <c r="B455" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C455" t="inlineStr"/>
@@ -17582,7 +17583,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B456" s="3" t="n">
+      <c r="B456" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C456" t="inlineStr"/>
@@ -17618,7 +17619,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B457" s="3" t="n">
+      <c r="B457" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C457" t="inlineStr"/>
@@ -17654,7 +17655,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B458" s="3" t="n">
+      <c r="B458" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C458" t="inlineStr"/>
@@ -17690,7 +17691,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B459" s="3" t="n">
+      <c r="B459" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C459" t="inlineStr"/>
@@ -17726,7 +17727,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B460" s="3" t="n">
+      <c r="B460" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C460" t="inlineStr"/>
@@ -17760,7 +17761,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B461" s="3" t="n">
+      <c r="B461" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C461" t="inlineStr"/>
@@ -17794,7 +17795,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B462" s="3" t="n">
+      <c r="B462" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C462" t="inlineStr"/>
@@ -17830,7 +17831,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B463" s="3" t="n">
+      <c r="B463" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C463" t="inlineStr"/>
@@ -17866,7 +17867,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B464" s="3" t="n">
+      <c r="B464" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C464" t="inlineStr">
@@ -17910,7 +17911,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B465" s="3" t="n">
+      <c r="B465" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C465" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR HYC W17-02-2.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W17-02-2.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,14 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,7 +501,7 @@
       </c>
       <c r="M1" s="2" t="inlineStr">
         <is>
-          <t>NDVI.Value</t>
+          <t>NDVIModel.Script.NDVI</t>
         </is>
       </c>
       <c r="N1" s="2" t="inlineStr">
@@ -567,7 +566,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="3" t="n">
         <v>42893</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -603,7 +602,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -639,7 +638,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -675,7 +674,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="3" t="n">
         <v>42928</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -711,7 +710,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -747,7 +746,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -783,7 +782,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -819,7 +818,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="3" t="n">
         <v>42995</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -855,7 +854,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -891,7 +890,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -927,7 +926,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -961,7 +960,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="3" t="n">
         <v>43062</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -995,7 +994,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="3" t="n">
         <v>43067</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1031,7 +1030,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1067,7 +1066,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="3" t="n">
         <v>43117</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,7 +1110,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -1167,7 +1166,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="3" t="n">
         <v>42893</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1203,7 +1202,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1239,7 +1238,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1275,7 +1274,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="3" t="n">
         <v>42928</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1311,7 +1310,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1347,7 +1346,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1383,7 +1382,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1419,7 +1418,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="3" t="n">
         <v>42995</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1455,7 +1454,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1491,7 +1490,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n">
+      <c r="B27" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1527,7 +1526,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B28" s="4" t="n">
+      <c r="B28" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1561,7 +1560,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="3" t="n">
         <v>43062</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1595,7 +1594,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="3" t="n">
         <v>43067</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1631,7 +1630,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B31" s="4" t="n">
+      <c r="B31" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1667,7 +1666,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" s="3" t="n">
         <v>43117</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -1711,7 +1710,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -1767,7 +1766,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B34" s="3" t="n">
         <v>42893</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1803,7 +1802,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B35" s="4" t="n">
+      <c r="B35" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1839,7 +1838,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B36" s="4" t="n">
+      <c r="B36" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1875,7 +1874,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B37" s="4" t="n">
+      <c r="B37" s="3" t="n">
         <v>42928</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1911,7 +1910,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B38" s="4" t="n">
+      <c r="B38" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1947,7 +1946,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B39" s="4" t="n">
+      <c r="B39" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1983,7 +1982,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B40" s="4" t="n">
+      <c r="B40" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2019,7 +2018,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B41" s="4" t="n">
+      <c r="B41" s="3" t="n">
         <v>42995</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2055,7 +2054,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B42" s="4" t="n">
+      <c r="B42" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2091,7 +2090,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B43" s="4" t="n">
+      <c r="B43" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2127,7 +2126,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B44" s="4" t="n">
+      <c r="B44" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2161,7 +2160,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B45" s="4" t="n">
+      <c r="B45" s="3" t="n">
         <v>43062</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2195,7 +2194,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B46" s="4" t="n">
+      <c r="B46" s="3" t="n">
         <v>43067</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2231,7 +2230,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B47" s="4" t="n">
+      <c r="B47" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2267,7 +2266,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B48" s="4" t="n">
+      <c r="B48" s="3" t="n">
         <v>43117</v>
       </c>
       <c r="C48" t="inlineStr">
@@ -2311,7 +2310,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B49" s="4" t="n">
+      <c r="B49" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -2367,7 +2366,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B50" s="4" t="n">
+      <c r="B50" s="3" t="n">
         <v>42893</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2403,7 +2402,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B51" s="4" t="n">
+      <c r="B51" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2439,7 +2438,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B52" s="4" t="n">
+      <c r="B52" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2475,7 +2474,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B53" s="4" t="n">
+      <c r="B53" s="3" t="n">
         <v>42928</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2511,7 +2510,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B54" s="4" t="n">
+      <c r="B54" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2547,7 +2546,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B55" s="4" t="n">
+      <c r="B55" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2583,7 +2582,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B56" s="4" t="n">
+      <c r="B56" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2619,7 +2618,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B57" s="4" t="n">
+      <c r="B57" s="3" t="n">
         <v>42995</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2655,7 +2654,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B58" s="4" t="n">
+      <c r="B58" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2691,7 +2690,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B59" s="4" t="n">
+      <c r="B59" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2727,7 +2726,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B60" s="4" t="n">
+      <c r="B60" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2761,7 +2760,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B61" s="4" t="n">
+      <c r="B61" s="3" t="n">
         <v>43062</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2795,7 +2794,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B62" s="4" t="n">
+      <c r="B62" s="3" t="n">
         <v>43067</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2831,7 +2830,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B63" s="4" t="n">
+      <c r="B63" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2867,7 +2866,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B64" s="4" t="n">
+      <c r="B64" s="3" t="n">
         <v>43117</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -2911,7 +2910,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B65" s="4" t="n">
+      <c r="B65" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C65" t="inlineStr">
@@ -2967,7 +2966,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B66" s="4" t="n">
+      <c r="B66" s="3" t="n">
         <v>42893</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -3003,7 +3002,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B67" s="4" t="n">
+      <c r="B67" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3039,7 +3038,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B68" s="4" t="n">
+      <c r="B68" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3075,7 +3074,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B69" s="4" t="n">
+      <c r="B69" s="3" t="n">
         <v>42928</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3111,7 +3110,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B70" s="4" t="n">
+      <c r="B70" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3147,7 +3146,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B71" s="4" t="n">
+      <c r="B71" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3183,7 +3182,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B72" s="4" t="n">
+      <c r="B72" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3219,7 +3218,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B73" s="4" t="n">
+      <c r="B73" s="3" t="n">
         <v>42995</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3255,7 +3254,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B74" s="4" t="n">
+      <c r="B74" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3291,7 +3290,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B75" s="4" t="n">
+      <c r="B75" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3327,7 +3326,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B76" s="4" t="n">
+      <c r="B76" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3361,7 +3360,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B77" s="4" t="n">
+      <c r="B77" s="3" t="n">
         <v>43062</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3395,7 +3394,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B78" s="4" t="n">
+      <c r="B78" s="3" t="n">
         <v>43067</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3431,7 +3430,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B79" s="4" t="n">
+      <c r="B79" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3467,7 +3466,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B80" s="4" t="n">
+      <c r="B80" s="3" t="n">
         <v>43117</v>
       </c>
       <c r="C80" t="inlineStr">
@@ -3511,7 +3510,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B81" s="4" t="n">
+      <c r="B81" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C81" t="inlineStr">
@@ -3567,7 +3566,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B82" s="4" t="n">
+      <c r="B82" s="3" t="n">
         <v>42893</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3603,7 +3602,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B83" s="4" t="n">
+      <c r="B83" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3639,7 +3638,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B84" s="4" t="n">
+      <c r="B84" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3675,7 +3674,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B85" s="4" t="n">
+      <c r="B85" s="3" t="n">
         <v>42928</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3711,7 +3710,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B86" s="4" t="n">
+      <c r="B86" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3747,7 +3746,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B87" s="4" t="n">
+      <c r="B87" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3783,7 +3782,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B88" s="4" t="n">
+      <c r="B88" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3819,7 +3818,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B89" s="4" t="n">
+      <c r="B89" s="3" t="n">
         <v>42995</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -3855,7 +3854,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B90" s="4" t="n">
+      <c r="B90" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -3891,7 +3890,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B91" s="4" t="n">
+      <c r="B91" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3927,7 +3926,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B92" s="4" t="n">
+      <c r="B92" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -3961,7 +3960,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B93" s="4" t="n">
+      <c r="B93" s="3" t="n">
         <v>43062</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -3995,7 +3994,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B94" s="4" t="n">
+      <c r="B94" s="3" t="n">
         <v>43067</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -4031,7 +4030,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B95" s="4" t="n">
+      <c r="B95" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4067,7 +4066,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B96" s="4" t="n">
+      <c r="B96" s="3" t="n">
         <v>43117</v>
       </c>
       <c r="C96" t="inlineStr">
@@ -4111,7 +4110,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B97" s="4" t="n">
+      <c r="B97" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C97" t="inlineStr">
@@ -4167,7 +4166,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B98" s="4" t="n">
+      <c r="B98" s="3" t="n">
         <v>42893</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4203,7 +4202,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B99" s="4" t="n">
+      <c r="B99" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4239,7 +4238,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B100" s="4" t="n">
+      <c r="B100" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4275,7 +4274,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B101" s="4" t="n">
+      <c r="B101" s="3" t="n">
         <v>42928</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4311,7 +4310,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B102" s="4" t="n">
+      <c r="B102" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4347,7 +4346,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B103" s="4" t="n">
+      <c r="B103" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4383,7 +4382,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B104" s="4" t="n">
+      <c r="B104" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4419,7 +4418,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B105" s="4" t="n">
+      <c r="B105" s="3" t="n">
         <v>42995</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4455,7 +4454,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B106" s="4" t="n">
+      <c r="B106" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4491,7 +4490,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B107" s="4" t="n">
+      <c r="B107" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4527,7 +4526,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B108" s="4" t="n">
+      <c r="B108" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4561,7 +4560,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B109" s="4" t="n">
+      <c r="B109" s="3" t="n">
         <v>43062</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4595,7 +4594,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B110" s="4" t="n">
+      <c r="B110" s="3" t="n">
         <v>43067</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4631,7 +4630,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B111" s="4" t="n">
+      <c r="B111" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4667,7 +4666,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B112" s="4" t="n">
+      <c r="B112" s="3" t="n">
         <v>43117</v>
       </c>
       <c r="C112" t="inlineStr">
@@ -4711,7 +4710,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B113" s="4" t="n">
+      <c r="B113" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C113" t="inlineStr">
@@ -4767,7 +4766,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B114" s="4" t="n">
+      <c r="B114" s="3" t="n">
         <v>42893</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -4803,7 +4802,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B115" s="4" t="n">
+      <c r="B115" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -4839,7 +4838,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B116" s="4" t="n">
+      <c r="B116" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -4875,7 +4874,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B117" s="4" t="n">
+      <c r="B117" s="3" t="n">
         <v>42928</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -4911,7 +4910,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B118" s="4" t="n">
+      <c r="B118" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -4947,7 +4946,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B119" s="4" t="n">
+      <c r="B119" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -4983,7 +4982,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B120" s="4" t="n">
+      <c r="B120" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -5019,7 +5018,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B121" s="4" t="n">
+      <c r="B121" s="3" t="n">
         <v>42995</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -5055,7 +5054,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B122" s="4" t="n">
+      <c r="B122" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -5091,7 +5090,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B123" s="4" t="n">
+      <c r="B123" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -5127,7 +5126,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B124" s="4" t="n">
+      <c r="B124" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -5161,7 +5160,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B125" s="4" t="n">
+      <c r="B125" s="3" t="n">
         <v>43062</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -5195,7 +5194,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B126" s="4" t="n">
+      <c r="B126" s="3" t="n">
         <v>43067</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5231,7 +5230,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B127" s="4" t="n">
+      <c r="B127" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5267,7 +5266,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B128" s="4" t="n">
+      <c r="B128" s="3" t="n">
         <v>43117</v>
       </c>
       <c r="C128" t="inlineStr">
@@ -5311,7 +5310,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B129" s="4" t="n">
+      <c r="B129" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C129" t="inlineStr">
@@ -5367,7 +5366,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B130" s="4" t="n">
+      <c r="B130" s="3" t="n">
         <v>42893</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5403,7 +5402,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B131" s="4" t="n">
+      <c r="B131" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -5439,7 +5438,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B132" s="4" t="n">
+      <c r="B132" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -5475,7 +5474,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B133" s="4" t="n">
+      <c r="B133" s="3" t="n">
         <v>42928</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5511,7 +5510,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B134" s="4" t="n">
+      <c r="B134" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -5547,7 +5546,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B135" s="4" t="n">
+      <c r="B135" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -5583,7 +5582,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B136" s="4" t="n">
+      <c r="B136" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -5619,7 +5618,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B137" s="4" t="n">
+      <c r="B137" s="3" t="n">
         <v>42995</v>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -5655,7 +5654,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B138" s="4" t="n">
+      <c r="B138" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -5691,7 +5690,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B139" s="4" t="n">
+      <c r="B139" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -5727,7 +5726,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B140" s="4" t="n">
+      <c r="B140" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -5761,7 +5760,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B141" s="4" t="n">
+      <c r="B141" s="3" t="n">
         <v>43062</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -5795,7 +5794,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B142" s="4" t="n">
+      <c r="B142" s="3" t="n">
         <v>43067</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -5831,7 +5830,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B143" s="4" t="n">
+      <c r="B143" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -5867,7 +5866,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B144" s="4" t="n">
+      <c r="B144" s="3" t="n">
         <v>43117</v>
       </c>
       <c r="C144" t="inlineStr">
@@ -5911,7 +5910,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B145" s="4" t="n">
+      <c r="B145" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C145" t="inlineStr">
@@ -5967,7 +5966,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B146" s="4" t="n">
+      <c r="B146" s="3" t="n">
         <v>42893</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -6003,7 +6002,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B147" s="4" t="n">
+      <c r="B147" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -6039,7 +6038,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B148" s="4" t="n">
+      <c r="B148" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -6075,7 +6074,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B149" s="4" t="n">
+      <c r="B149" s="3" t="n">
         <v>42928</v>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -6111,7 +6110,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B150" s="4" t="n">
+      <c r="B150" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -6147,7 +6146,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B151" s="4" t="n">
+      <c r="B151" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -6183,7 +6182,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B152" s="4" t="n">
+      <c r="B152" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -6219,7 +6218,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B153" s="4" t="n">
+      <c r="B153" s="3" t="n">
         <v>42995</v>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -6255,7 +6254,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B154" s="4" t="n">
+      <c r="B154" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -6291,7 +6290,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B155" s="4" t="n">
+      <c r="B155" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -6327,7 +6326,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B156" s="4" t="n">
+      <c r="B156" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -6361,7 +6360,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B157" s="4" t="n">
+      <c r="B157" s="3" t="n">
         <v>43062</v>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -6395,7 +6394,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B158" s="4" t="n">
+      <c r="B158" s="3" t="n">
         <v>43067</v>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -6431,7 +6430,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B159" s="4" t="n">
+      <c r="B159" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -6467,7 +6466,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B160" s="4" t="n">
+      <c r="B160" s="3" t="n">
         <v>43117</v>
       </c>
       <c r="C160" t="inlineStr">
@@ -6511,7 +6510,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B161" s="4" t="n">
+      <c r="B161" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C161" t="inlineStr">
@@ -6567,7 +6566,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B162" s="4" t="n">
+      <c r="B162" s="3" t="n">
         <v>42893</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -6603,7 +6602,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B163" s="4" t="n">
+      <c r="B163" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -6639,7 +6638,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B164" s="4" t="n">
+      <c r="B164" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -6675,7 +6674,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B165" s="4" t="n">
+      <c r="B165" s="3" t="n">
         <v>42928</v>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -6711,7 +6710,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B166" s="4" t="n">
+      <c r="B166" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -6747,7 +6746,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B167" s="4" t="n">
+      <c r="B167" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -6783,7 +6782,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B168" s="4" t="n">
+      <c r="B168" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -6819,7 +6818,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B169" s="4" t="n">
+      <c r="B169" s="3" t="n">
         <v>42995</v>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -6855,7 +6854,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B170" s="4" t="n">
+      <c r="B170" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -6891,7 +6890,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B171" s="4" t="n">
+      <c r="B171" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -6927,7 +6926,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B172" s="4" t="n">
+      <c r="B172" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -6961,7 +6960,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B173" s="4" t="n">
+      <c r="B173" s="3" t="n">
         <v>43062</v>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -6995,7 +6994,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B174" s="4" t="n">
+      <c r="B174" s="3" t="n">
         <v>43067</v>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -7031,7 +7030,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B175" s="4" t="n">
+      <c r="B175" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -7067,7 +7066,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B176" s="4" t="n">
+      <c r="B176" s="3" t="n">
         <v>43117</v>
       </c>
       <c r="C176" t="inlineStr">
@@ -7111,7 +7110,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B177" s="4" t="n">
+      <c r="B177" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C177" t="inlineStr">
@@ -7167,7 +7166,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B178" s="4" t="n">
+      <c r="B178" s="3" t="n">
         <v>42893</v>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -7203,7 +7202,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B179" s="4" t="n">
+      <c r="B179" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -7239,7 +7238,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B180" s="4" t="n">
+      <c r="B180" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -7275,7 +7274,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B181" s="4" t="n">
+      <c r="B181" s="3" t="n">
         <v>42928</v>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -7311,7 +7310,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B182" s="4" t="n">
+      <c r="B182" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -7347,7 +7346,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B183" s="4" t="n">
+      <c r="B183" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -7383,7 +7382,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B184" s="4" t="n">
+      <c r="B184" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -7419,7 +7418,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B185" s="4" t="n">
+      <c r="B185" s="3" t="n">
         <v>42995</v>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -7455,7 +7454,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B186" s="4" t="n">
+      <c r="B186" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -7491,7 +7490,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B187" s="4" t="n">
+      <c r="B187" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -7527,7 +7526,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B188" s="4" t="n">
+      <c r="B188" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -7561,7 +7560,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B189" s="4" t="n">
+      <c r="B189" s="3" t="n">
         <v>43062</v>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -7595,7 +7594,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B190" s="4" t="n">
+      <c r="B190" s="3" t="n">
         <v>43067</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -7631,7 +7630,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B191" s="4" t="n">
+      <c r="B191" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -7667,7 +7666,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B192" s="4" t="n">
+      <c r="B192" s="3" t="n">
         <v>43117</v>
       </c>
       <c r="C192" t="inlineStr">
@@ -7711,7 +7710,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B193" s="4" t="n">
+      <c r="B193" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C193" t="inlineStr">
@@ -7767,7 +7766,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B194" s="4" t="n">
+      <c r="B194" s="3" t="n">
         <v>42893</v>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -7803,7 +7802,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B195" s="4" t="n">
+      <c r="B195" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -7839,7 +7838,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B196" s="4" t="n">
+      <c r="B196" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -7875,7 +7874,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B197" s="4" t="n">
+      <c r="B197" s="3" t="n">
         <v>42928</v>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -7911,7 +7910,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B198" s="4" t="n">
+      <c r="B198" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -7947,7 +7946,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B199" s="4" t="n">
+      <c r="B199" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -7983,7 +7982,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B200" s="4" t="n">
+      <c r="B200" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -8019,7 +8018,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B201" s="4" t="n">
+      <c r="B201" s="3" t="n">
         <v>42995</v>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -8055,7 +8054,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B202" s="4" t="n">
+      <c r="B202" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -8091,7 +8090,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B203" s="4" t="n">
+      <c r="B203" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -8127,7 +8126,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B204" s="4" t="n">
+      <c r="B204" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -8161,7 +8160,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B205" s="4" t="n">
+      <c r="B205" s="3" t="n">
         <v>43062</v>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -8195,7 +8194,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B206" s="4" t="n">
+      <c r="B206" s="3" t="n">
         <v>43067</v>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -8231,7 +8230,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B207" s="4" t="n">
+      <c r="B207" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -8267,7 +8266,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B208" s="4" t="n">
+      <c r="B208" s="3" t="n">
         <v>43117</v>
       </c>
       <c r="C208" t="inlineStr">
@@ -8311,7 +8310,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B209" s="4" t="n">
+      <c r="B209" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C209" t="inlineStr">
@@ -8367,7 +8366,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B210" s="4" t="n">
+      <c r="B210" s="3" t="n">
         <v>42893</v>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -8403,7 +8402,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B211" s="4" t="n">
+      <c r="B211" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -8439,7 +8438,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B212" s="4" t="n">
+      <c r="B212" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -8475,7 +8474,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B213" s="4" t="n">
+      <c r="B213" s="3" t="n">
         <v>42928</v>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -8511,7 +8510,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B214" s="4" t="n">
+      <c r="B214" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -8547,7 +8546,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B215" s="4" t="n">
+      <c r="B215" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -8583,7 +8582,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B216" s="4" t="n">
+      <c r="B216" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -8619,7 +8618,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B217" s="4" t="n">
+      <c r="B217" s="3" t="n">
         <v>42995</v>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -8655,7 +8654,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B218" s="4" t="n">
+      <c r="B218" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -8691,7 +8690,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B219" s="4" t="n">
+      <c r="B219" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -8727,7 +8726,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B220" s="4" t="n">
+      <c r="B220" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -8761,7 +8760,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B221" s="4" t="n">
+      <c r="B221" s="3" t="n">
         <v>43062</v>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -8795,7 +8794,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B222" s="4" t="n">
+      <c r="B222" s="3" t="n">
         <v>43067</v>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -8831,7 +8830,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B223" s="4" t="n">
+      <c r="B223" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -8867,7 +8866,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B224" s="4" t="n">
+      <c r="B224" s="3" t="n">
         <v>43117</v>
       </c>
       <c r="C224" t="inlineStr">
@@ -8911,7 +8910,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B225" s="4" t="n">
+      <c r="B225" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C225" t="inlineStr">
@@ -8967,7 +8966,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B226" s="4" t="n">
+      <c r="B226" s="3" t="n">
         <v>42893</v>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -9003,7 +9002,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B227" s="4" t="n">
+      <c r="B227" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -9039,7 +9038,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B228" s="4" t="n">
+      <c r="B228" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -9075,7 +9074,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B229" s="4" t="n">
+      <c r="B229" s="3" t="n">
         <v>42928</v>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -9111,7 +9110,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B230" s="4" t="n">
+      <c r="B230" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -9147,7 +9146,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B231" s="4" t="n">
+      <c r="B231" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -9183,7 +9182,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B232" s="4" t="n">
+      <c r="B232" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -9219,7 +9218,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B233" s="4" t="n">
+      <c r="B233" s="3" t="n">
         <v>42995</v>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -9255,7 +9254,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B234" s="4" t="n">
+      <c r="B234" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -9291,7 +9290,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B235" s="4" t="n">
+      <c r="B235" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -9327,7 +9326,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B236" s="4" t="n">
+      <c r="B236" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -9361,7 +9360,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B237" s="4" t="n">
+      <c r="B237" s="3" t="n">
         <v>43062</v>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -9395,7 +9394,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B238" s="4" t="n">
+      <c r="B238" s="3" t="n">
         <v>43067</v>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -9431,7 +9430,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B239" s="4" t="n">
+      <c r="B239" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -9467,7 +9466,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B240" s="4" t="n">
+      <c r="B240" s="3" t="n">
         <v>43117</v>
       </c>
       <c r="C240" t="inlineStr">
@@ -9511,7 +9510,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B241" s="4" t="n">
+      <c r="B241" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C241" t="inlineStr">
@@ -9567,7 +9566,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B242" s="4" t="n">
+      <c r="B242" s="3" t="n">
         <v>42893</v>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -9603,7 +9602,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B243" s="4" t="n">
+      <c r="B243" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C243" t="inlineStr"/>
@@ -9639,7 +9638,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B244" s="4" t="n">
+      <c r="B244" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -9675,7 +9674,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B245" s="4" t="n">
+      <c r="B245" s="3" t="n">
         <v>42928</v>
       </c>
       <c r="C245" t="inlineStr"/>
@@ -9711,7 +9710,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B246" s="4" t="n">
+      <c r="B246" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -9747,7 +9746,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B247" s="4" t="n">
+      <c r="B247" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C247" t="inlineStr"/>
@@ -9783,7 +9782,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B248" s="4" t="n">
+      <c r="B248" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C248" t="inlineStr"/>
@@ -9819,7 +9818,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B249" s="4" t="n">
+      <c r="B249" s="3" t="n">
         <v>42995</v>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -9855,7 +9854,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B250" s="4" t="n">
+      <c r="B250" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -9891,7 +9890,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B251" s="4" t="n">
+      <c r="B251" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C251" t="inlineStr"/>
@@ -9927,7 +9926,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B252" s="4" t="n">
+      <c r="B252" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C252" t="inlineStr"/>
@@ -9961,7 +9960,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B253" s="4" t="n">
+      <c r="B253" s="3" t="n">
         <v>43062</v>
       </c>
       <c r="C253" t="inlineStr"/>
@@ -9995,7 +9994,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B254" s="4" t="n">
+      <c r="B254" s="3" t="n">
         <v>43067</v>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -10031,7 +10030,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B255" s="4" t="n">
+      <c r="B255" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C255" t="inlineStr"/>
@@ -10067,7 +10066,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B256" s="4" t="n">
+      <c r="B256" s="3" t="n">
         <v>43117</v>
       </c>
       <c r="C256" t="inlineStr">
@@ -10111,7 +10110,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B257" s="4" t="n">
+      <c r="B257" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C257" t="inlineStr">
@@ -10167,7 +10166,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B258" s="4" t="n">
+      <c r="B258" s="3" t="n">
         <v>42893</v>
       </c>
       <c r="C258" t="inlineStr"/>
@@ -10203,7 +10202,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B259" s="4" t="n">
+      <c r="B259" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C259" t="inlineStr"/>
@@ -10239,7 +10238,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B260" s="4" t="n">
+      <c r="B260" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C260" t="inlineStr"/>
@@ -10275,7 +10274,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B261" s="4" t="n">
+      <c r="B261" s="3" t="n">
         <v>42928</v>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -10311,7 +10310,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B262" s="4" t="n">
+      <c r="B262" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C262" t="inlineStr"/>
@@ -10347,7 +10346,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B263" s="4" t="n">
+      <c r="B263" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -10383,7 +10382,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B264" s="4" t="n">
+      <c r="B264" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C264" t="inlineStr"/>
@@ -10419,7 +10418,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B265" s="4" t="n">
+      <c r="B265" s="3" t="n">
         <v>42995</v>
       </c>
       <c r="C265" t="inlineStr"/>
@@ -10455,7 +10454,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B266" s="4" t="n">
+      <c r="B266" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C266" t="inlineStr"/>
@@ -10491,7 +10490,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B267" s="4" t="n">
+      <c r="B267" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C267" t="inlineStr"/>
@@ -10527,7 +10526,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B268" s="4" t="n">
+      <c r="B268" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C268" t="inlineStr"/>
@@ -10561,7 +10560,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B269" s="4" t="n">
+      <c r="B269" s="3" t="n">
         <v>43062</v>
       </c>
       <c r="C269" t="inlineStr"/>
@@ -10595,7 +10594,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B270" s="4" t="n">
+      <c r="B270" s="3" t="n">
         <v>43067</v>
       </c>
       <c r="C270" t="inlineStr"/>
@@ -10631,7 +10630,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B271" s="4" t="n">
+      <c r="B271" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C271" t="inlineStr"/>
@@ -10667,7 +10666,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B272" s="4" t="n">
+      <c r="B272" s="3" t="n">
         <v>43117</v>
       </c>
       <c r="C272" t="inlineStr">
@@ -10711,7 +10710,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B273" s="4" t="n">
+      <c r="B273" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C273" t="inlineStr">
@@ -10767,7 +10766,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B274" s="4" t="n">
+      <c r="B274" s="3" t="n">
         <v>42893</v>
       </c>
       <c r="C274" t="inlineStr"/>
@@ -10803,7 +10802,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B275" s="4" t="n">
+      <c r="B275" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C275" t="inlineStr"/>
@@ -10839,7 +10838,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B276" s="4" t="n">
+      <c r="B276" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C276" t="inlineStr"/>
@@ -10875,7 +10874,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B277" s="4" t="n">
+      <c r="B277" s="3" t="n">
         <v>42928</v>
       </c>
       <c r="C277" t="inlineStr"/>
@@ -10911,7 +10910,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B278" s="4" t="n">
+      <c r="B278" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C278" t="inlineStr"/>
@@ -10947,7 +10946,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B279" s="4" t="n">
+      <c r="B279" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C279" t="inlineStr"/>
@@ -10983,7 +10982,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B280" s="4" t="n">
+      <c r="B280" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C280" t="inlineStr"/>
@@ -11019,7 +11018,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B281" s="4" t="n">
+      <c r="B281" s="3" t="n">
         <v>42995</v>
       </c>
       <c r="C281" t="inlineStr"/>
@@ -11055,7 +11054,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B282" s="4" t="n">
+      <c r="B282" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C282" t="inlineStr"/>
@@ -11091,7 +11090,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B283" s="4" t="n">
+      <c r="B283" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C283" t="inlineStr"/>
@@ -11127,7 +11126,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B284" s="4" t="n">
+      <c r="B284" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C284" t="inlineStr"/>
@@ -11161,7 +11160,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B285" s="4" t="n">
+      <c r="B285" s="3" t="n">
         <v>43062</v>
       </c>
       <c r="C285" t="inlineStr"/>
@@ -11195,7 +11194,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B286" s="4" t="n">
+      <c r="B286" s="3" t="n">
         <v>43067</v>
       </c>
       <c r="C286" t="inlineStr"/>
@@ -11231,7 +11230,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B287" s="4" t="n">
+      <c r="B287" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C287" t="inlineStr"/>
@@ -11267,7 +11266,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B288" s="4" t="n">
+      <c r="B288" s="3" t="n">
         <v>43117</v>
       </c>
       <c r="C288" t="inlineStr">
@@ -11311,7 +11310,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B289" s="4" t="n">
+      <c r="B289" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C289" t="inlineStr">
@@ -11367,7 +11366,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B290" s="4" t="n">
+      <c r="B290" s="3" t="n">
         <v>42893</v>
       </c>
       <c r="C290" t="inlineStr"/>
@@ -11403,7 +11402,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B291" s="4" t="n">
+      <c r="B291" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C291" t="inlineStr"/>
@@ -11439,7 +11438,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B292" s="4" t="n">
+      <c r="B292" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C292" t="inlineStr"/>
@@ -11475,7 +11474,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B293" s="4" t="n">
+      <c r="B293" s="3" t="n">
         <v>42928</v>
       </c>
       <c r="C293" t="inlineStr"/>
@@ -11511,7 +11510,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B294" s="4" t="n">
+      <c r="B294" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C294" t="inlineStr"/>
@@ -11547,7 +11546,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B295" s="4" t="n">
+      <c r="B295" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C295" t="inlineStr"/>
@@ -11583,7 +11582,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B296" s="4" t="n">
+      <c r="B296" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C296" t="inlineStr"/>
@@ -11619,7 +11618,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B297" s="4" t="n">
+      <c r="B297" s="3" t="n">
         <v>42995</v>
       </c>
       <c r="C297" t="inlineStr"/>
@@ -11655,7 +11654,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B298" s="4" t="n">
+      <c r="B298" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C298" t="inlineStr"/>
@@ -11691,7 +11690,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B299" s="4" t="n">
+      <c r="B299" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C299" t="inlineStr"/>
@@ -11727,7 +11726,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B300" s="4" t="n">
+      <c r="B300" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C300" t="inlineStr"/>
@@ -11761,7 +11760,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B301" s="4" t="n">
+      <c r="B301" s="3" t="n">
         <v>43062</v>
       </c>
       <c r="C301" t="inlineStr"/>
@@ -11795,7 +11794,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B302" s="4" t="n">
+      <c r="B302" s="3" t="n">
         <v>43067</v>
       </c>
       <c r="C302" t="inlineStr"/>
@@ -11831,7 +11830,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B303" s="4" t="n">
+      <c r="B303" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C303" t="inlineStr"/>
@@ -11867,7 +11866,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B304" s="4" t="n">
+      <c r="B304" s="3" t="n">
         <v>43117</v>
       </c>
       <c r="C304" t="inlineStr">
@@ -11911,7 +11910,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B305" s="4" t="n">
+      <c r="B305" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C305" t="inlineStr">
@@ -11967,7 +11966,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B306" s="4" t="n">
+      <c r="B306" s="3" t="n">
         <v>42893</v>
       </c>
       <c r="C306" t="inlineStr"/>
@@ -12003,7 +12002,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B307" s="4" t="n">
+      <c r="B307" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C307" t="inlineStr"/>
@@ -12039,7 +12038,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B308" s="4" t="n">
+      <c r="B308" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C308" t="inlineStr"/>
@@ -12075,7 +12074,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B309" s="4" t="n">
+      <c r="B309" s="3" t="n">
         <v>42928</v>
       </c>
       <c r="C309" t="inlineStr"/>
@@ -12111,7 +12110,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B310" s="4" t="n">
+      <c r="B310" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C310" t="inlineStr"/>
@@ -12147,7 +12146,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B311" s="4" t="n">
+      <c r="B311" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C311" t="inlineStr"/>
@@ -12183,7 +12182,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B312" s="4" t="n">
+      <c r="B312" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C312" t="inlineStr"/>
@@ -12219,7 +12218,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B313" s="4" t="n">
+      <c r="B313" s="3" t="n">
         <v>42995</v>
       </c>
       <c r="C313" t="inlineStr"/>
@@ -12255,7 +12254,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B314" s="4" t="n">
+      <c r="B314" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C314" t="inlineStr"/>
@@ -12291,7 +12290,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B315" s="4" t="n">
+      <c r="B315" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C315" t="inlineStr"/>
@@ -12327,7 +12326,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B316" s="4" t="n">
+      <c r="B316" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C316" t="inlineStr"/>
@@ -12361,7 +12360,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B317" s="4" t="n">
+      <c r="B317" s="3" t="n">
         <v>43062</v>
       </c>
       <c r="C317" t="inlineStr"/>
@@ -12395,7 +12394,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B318" s="4" t="n">
+      <c r="B318" s="3" t="n">
         <v>43067</v>
       </c>
       <c r="C318" t="inlineStr"/>
@@ -12431,7 +12430,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B319" s="4" t="n">
+      <c r="B319" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C319" t="inlineStr"/>
@@ -12467,7 +12466,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B320" s="4" t="n">
+      <c r="B320" s="3" t="n">
         <v>43117</v>
       </c>
       <c r="C320" t="inlineStr">
@@ -12511,7 +12510,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B321" s="4" t="n">
+      <c r="B321" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C321" t="inlineStr">
@@ -12567,7 +12566,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B322" s="4" t="n">
+      <c r="B322" s="3" t="n">
         <v>42893</v>
       </c>
       <c r="C322" t="inlineStr"/>
@@ -12603,7 +12602,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B323" s="4" t="n">
+      <c r="B323" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C323" t="inlineStr"/>
@@ -12639,7 +12638,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B324" s="4" t="n">
+      <c r="B324" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C324" t="inlineStr"/>
@@ -12675,7 +12674,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B325" s="4" t="n">
+      <c r="B325" s="3" t="n">
         <v>42928</v>
       </c>
       <c r="C325" t="inlineStr"/>
@@ -12711,7 +12710,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B326" s="4" t="n">
+      <c r="B326" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C326" t="inlineStr"/>
@@ -12747,7 +12746,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B327" s="4" t="n">
+      <c r="B327" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C327" t="inlineStr"/>
@@ -12783,7 +12782,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B328" s="4" t="n">
+      <c r="B328" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C328" t="inlineStr"/>
@@ -12819,7 +12818,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B329" s="4" t="n">
+      <c r="B329" s="3" t="n">
         <v>42995</v>
       </c>
       <c r="C329" t="inlineStr"/>
@@ -12855,7 +12854,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B330" s="4" t="n">
+      <c r="B330" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C330" t="inlineStr"/>
@@ -12891,7 +12890,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B331" s="4" t="n">
+      <c r="B331" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C331" t="inlineStr"/>
@@ -12927,7 +12926,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B332" s="4" t="n">
+      <c r="B332" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C332" t="inlineStr"/>
@@ -12961,7 +12960,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B333" s="4" t="n">
+      <c r="B333" s="3" t="n">
         <v>43062</v>
       </c>
       <c r="C333" t="inlineStr"/>
@@ -12995,7 +12994,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B334" s="4" t="n">
+      <c r="B334" s="3" t="n">
         <v>43067</v>
       </c>
       <c r="C334" t="inlineStr"/>
@@ -13031,7 +13030,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B335" s="4" t="n">
+      <c r="B335" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C335" t="inlineStr"/>
@@ -13067,7 +13066,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B336" s="4" t="n">
+      <c r="B336" s="3" t="n">
         <v>43117</v>
       </c>
       <c r="C336" t="inlineStr">
@@ -13111,7 +13110,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B337" s="4" t="n">
+      <c r="B337" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C337" t="inlineStr">
@@ -13167,7 +13166,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B338" s="4" t="n">
+      <c r="B338" s="3" t="n">
         <v>42893</v>
       </c>
       <c r="C338" t="inlineStr"/>
@@ -13203,7 +13202,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B339" s="4" t="n">
+      <c r="B339" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C339" t="inlineStr"/>
@@ -13239,7 +13238,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B340" s="4" t="n">
+      <c r="B340" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C340" t="inlineStr"/>
@@ -13275,7 +13274,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B341" s="4" t="n">
+      <c r="B341" s="3" t="n">
         <v>42928</v>
       </c>
       <c r="C341" t="inlineStr"/>
@@ -13311,7 +13310,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B342" s="4" t="n">
+      <c r="B342" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C342" t="inlineStr"/>
@@ -13347,7 +13346,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B343" s="4" t="n">
+      <c r="B343" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C343" t="inlineStr"/>
@@ -13383,7 +13382,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B344" s="4" t="n">
+      <c r="B344" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C344" t="inlineStr"/>
@@ -13419,7 +13418,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B345" s="4" t="n">
+      <c r="B345" s="3" t="n">
         <v>42995</v>
       </c>
       <c r="C345" t="inlineStr"/>
@@ -13455,7 +13454,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B346" s="4" t="n">
+      <c r="B346" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C346" t="inlineStr"/>
@@ -13491,7 +13490,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B347" s="4" t="n">
+      <c r="B347" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C347" t="inlineStr"/>
@@ -13527,7 +13526,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B348" s="4" t="n">
+      <c r="B348" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C348" t="inlineStr"/>
@@ -13561,7 +13560,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B349" s="4" t="n">
+      <c r="B349" s="3" t="n">
         <v>43062</v>
       </c>
       <c r="C349" t="inlineStr"/>
@@ -13595,7 +13594,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B350" s="4" t="n">
+      <c r="B350" s="3" t="n">
         <v>43067</v>
       </c>
       <c r="C350" t="inlineStr"/>
@@ -13631,7 +13630,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B351" s="4" t="n">
+      <c r="B351" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C351" t="inlineStr"/>
@@ -13667,7 +13666,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B352" s="4" t="n">
+      <c r="B352" s="3" t="n">
         <v>43117</v>
       </c>
       <c r="C352" t="inlineStr">
@@ -13711,7 +13710,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B353" s="4" t="n">
+      <c r="B353" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C353" t="inlineStr">
@@ -13767,7 +13766,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B354" s="4" t="n">
+      <c r="B354" s="3" t="n">
         <v>42893</v>
       </c>
       <c r="C354" t="inlineStr"/>
@@ -13803,7 +13802,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B355" s="4" t="n">
+      <c r="B355" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C355" t="inlineStr"/>
@@ -13839,7 +13838,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B356" s="4" t="n">
+      <c r="B356" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C356" t="inlineStr"/>
@@ -13875,7 +13874,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B357" s="4" t="n">
+      <c r="B357" s="3" t="n">
         <v>42928</v>
       </c>
       <c r="C357" t="inlineStr"/>
@@ -13911,7 +13910,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B358" s="4" t="n">
+      <c r="B358" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C358" t="inlineStr"/>
@@ -13947,7 +13946,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B359" s="4" t="n">
+      <c r="B359" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C359" t="inlineStr"/>
@@ -13983,7 +13982,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B360" s="4" t="n">
+      <c r="B360" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C360" t="inlineStr"/>
@@ -14019,7 +14018,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B361" s="4" t="n">
+      <c r="B361" s="3" t="n">
         <v>42995</v>
       </c>
       <c r="C361" t="inlineStr"/>
@@ -14055,7 +14054,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B362" s="4" t="n">
+      <c r="B362" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C362" t="inlineStr"/>
@@ -14091,7 +14090,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B363" s="4" t="n">
+      <c r="B363" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C363" t="inlineStr"/>
@@ -14127,7 +14126,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B364" s="4" t="n">
+      <c r="B364" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C364" t="inlineStr"/>
@@ -14161,7 +14160,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B365" s="4" t="n">
+      <c r="B365" s="3" t="n">
         <v>43062</v>
       </c>
       <c r="C365" t="inlineStr"/>
@@ -14195,7 +14194,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B366" s="4" t="n">
+      <c r="B366" s="3" t="n">
         <v>43067</v>
       </c>
       <c r="C366" t="inlineStr"/>
@@ -14231,7 +14230,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B367" s="4" t="n">
+      <c r="B367" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C367" t="inlineStr"/>
@@ -14267,7 +14266,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B368" s="4" t="n">
+      <c r="B368" s="3" t="n">
         <v>43117</v>
       </c>
       <c r="C368" t="inlineStr">
@@ -14311,7 +14310,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B369" s="4" t="n">
+      <c r="B369" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C369" t="inlineStr">
@@ -14367,7 +14366,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B370" s="4" t="n">
+      <c r="B370" s="3" t="n">
         <v>42893</v>
       </c>
       <c r="C370" t="inlineStr"/>
@@ -14403,7 +14402,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B371" s="4" t="n">
+      <c r="B371" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C371" t="inlineStr"/>
@@ -14439,7 +14438,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B372" s="4" t="n">
+      <c r="B372" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C372" t="inlineStr"/>
@@ -14475,7 +14474,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B373" s="4" t="n">
+      <c r="B373" s="3" t="n">
         <v>42928</v>
       </c>
       <c r="C373" t="inlineStr"/>
@@ -14511,7 +14510,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B374" s="4" t="n">
+      <c r="B374" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C374" t="inlineStr"/>
@@ -14547,7 +14546,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B375" s="4" t="n">
+      <c r="B375" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C375" t="inlineStr"/>
@@ -14583,7 +14582,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B376" s="4" t="n">
+      <c r="B376" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C376" t="inlineStr"/>
@@ -14619,7 +14618,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B377" s="4" t="n">
+      <c r="B377" s="3" t="n">
         <v>42995</v>
       </c>
       <c r="C377" t="inlineStr"/>
@@ -14655,7 +14654,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B378" s="4" t="n">
+      <c r="B378" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C378" t="inlineStr"/>
@@ -14691,7 +14690,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B379" s="4" t="n">
+      <c r="B379" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C379" t="inlineStr"/>
@@ -14727,7 +14726,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B380" s="4" t="n">
+      <c r="B380" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C380" t="inlineStr"/>
@@ -14761,7 +14760,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B381" s="4" t="n">
+      <c r="B381" s="3" t="n">
         <v>43062</v>
       </c>
       <c r="C381" t="inlineStr"/>
@@ -14795,7 +14794,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B382" s="4" t="n">
+      <c r="B382" s="3" t="n">
         <v>43067</v>
       </c>
       <c r="C382" t="inlineStr"/>
@@ -14831,7 +14830,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B383" s="4" t="n">
+      <c r="B383" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C383" t="inlineStr"/>
@@ -14867,7 +14866,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B384" s="4" t="n">
+      <c r="B384" s="3" t="n">
         <v>43117</v>
       </c>
       <c r="C384" t="inlineStr">
@@ -14911,7 +14910,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B385" s="4" t="n">
+      <c r="B385" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C385" t="inlineStr">
@@ -14967,7 +14966,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B386" s="4" t="n">
+      <c r="B386" s="3" t="n">
         <v>42893</v>
       </c>
       <c r="C386" t="inlineStr"/>
@@ -15003,7 +15002,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B387" s="4" t="n">
+      <c r="B387" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C387" t="inlineStr"/>
@@ -15039,7 +15038,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B388" s="4" t="n">
+      <c r="B388" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C388" t="inlineStr"/>
@@ -15075,7 +15074,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B389" s="4" t="n">
+      <c r="B389" s="3" t="n">
         <v>42928</v>
       </c>
       <c r="C389" t="inlineStr"/>
@@ -15111,7 +15110,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B390" s="4" t="n">
+      <c r="B390" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C390" t="inlineStr"/>
@@ -15147,7 +15146,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B391" s="4" t="n">
+      <c r="B391" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C391" t="inlineStr"/>
@@ -15183,7 +15182,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B392" s="4" t="n">
+      <c r="B392" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C392" t="inlineStr"/>
@@ -15219,7 +15218,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B393" s="4" t="n">
+      <c r="B393" s="3" t="n">
         <v>42995</v>
       </c>
       <c r="C393" t="inlineStr"/>
@@ -15255,7 +15254,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B394" s="4" t="n">
+      <c r="B394" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C394" t="inlineStr"/>
@@ -15291,7 +15290,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B395" s="4" t="n">
+      <c r="B395" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C395" t="inlineStr"/>
@@ -15327,7 +15326,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B396" s="4" t="n">
+      <c r="B396" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C396" t="inlineStr"/>
@@ -15361,7 +15360,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B397" s="4" t="n">
+      <c r="B397" s="3" t="n">
         <v>43062</v>
       </c>
       <c r="C397" t="inlineStr"/>
@@ -15395,7 +15394,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B398" s="4" t="n">
+      <c r="B398" s="3" t="n">
         <v>43067</v>
       </c>
       <c r="C398" t="inlineStr"/>
@@ -15431,7 +15430,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B399" s="4" t="n">
+      <c r="B399" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C399" t="inlineStr"/>
@@ -15467,7 +15466,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B400" s="4" t="n">
+      <c r="B400" s="3" t="n">
         <v>43117</v>
       </c>
       <c r="C400" t="inlineStr">
@@ -15511,7 +15510,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B401" s="4" t="n">
+      <c r="B401" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C401" t="inlineStr">
@@ -15567,7 +15566,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B402" s="4" t="n">
+      <c r="B402" s="3" t="n">
         <v>42893</v>
       </c>
       <c r="C402" t="inlineStr"/>
@@ -15603,7 +15602,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B403" s="4" t="n">
+      <c r="B403" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C403" t="inlineStr"/>
@@ -15639,7 +15638,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B404" s="4" t="n">
+      <c r="B404" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C404" t="inlineStr"/>
@@ -15675,7 +15674,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B405" s="4" t="n">
+      <c r="B405" s="3" t="n">
         <v>42928</v>
       </c>
       <c r="C405" t="inlineStr"/>
@@ -15711,7 +15710,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B406" s="4" t="n">
+      <c r="B406" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C406" t="inlineStr"/>
@@ -15747,7 +15746,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B407" s="4" t="n">
+      <c r="B407" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C407" t="inlineStr"/>
@@ -15783,7 +15782,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B408" s="4" t="n">
+      <c r="B408" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C408" t="inlineStr"/>
@@ -15819,7 +15818,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B409" s="4" t="n">
+      <c r="B409" s="3" t="n">
         <v>42995</v>
       </c>
       <c r="C409" t="inlineStr"/>
@@ -15855,7 +15854,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B410" s="4" t="n">
+      <c r="B410" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C410" t="inlineStr"/>
@@ -15891,7 +15890,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B411" s="4" t="n">
+      <c r="B411" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C411" t="inlineStr"/>
@@ -15927,7 +15926,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B412" s="4" t="n">
+      <c r="B412" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C412" t="inlineStr"/>
@@ -15961,7 +15960,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B413" s="4" t="n">
+      <c r="B413" s="3" t="n">
         <v>43062</v>
       </c>
       <c r="C413" t="inlineStr"/>
@@ -15995,7 +15994,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B414" s="4" t="n">
+      <c r="B414" s="3" t="n">
         <v>43067</v>
       </c>
       <c r="C414" t="inlineStr"/>
@@ -16031,7 +16030,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B415" s="4" t="n">
+      <c r="B415" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C415" t="inlineStr"/>
@@ -16067,7 +16066,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B416" s="4" t="n">
+      <c r="B416" s="3" t="n">
         <v>43117</v>
       </c>
       <c r="C416" t="inlineStr">
@@ -16111,7 +16110,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B417" s="4" t="n">
+      <c r="B417" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C417" t="inlineStr">
@@ -16167,7 +16166,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B418" s="4" t="n">
+      <c r="B418" s="3" t="n">
         <v>42893</v>
       </c>
       <c r="C418" t="inlineStr"/>
@@ -16203,7 +16202,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B419" s="4" t="n">
+      <c r="B419" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C419" t="inlineStr"/>
@@ -16239,7 +16238,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B420" s="4" t="n">
+      <c r="B420" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C420" t="inlineStr"/>
@@ -16275,7 +16274,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B421" s="4" t="n">
+      <c r="B421" s="3" t="n">
         <v>42928</v>
       </c>
       <c r="C421" t="inlineStr"/>
@@ -16311,7 +16310,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B422" s="4" t="n">
+      <c r="B422" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C422" t="inlineStr"/>
@@ -16347,7 +16346,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B423" s="4" t="n">
+      <c r="B423" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C423" t="inlineStr"/>
@@ -16383,7 +16382,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B424" s="4" t="n">
+      <c r="B424" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C424" t="inlineStr"/>
@@ -16419,7 +16418,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B425" s="4" t="n">
+      <c r="B425" s="3" t="n">
         <v>42995</v>
       </c>
       <c r="C425" t="inlineStr"/>
@@ -16455,7 +16454,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B426" s="4" t="n">
+      <c r="B426" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C426" t="inlineStr"/>
@@ -16491,7 +16490,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B427" s="4" t="n">
+      <c r="B427" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C427" t="inlineStr"/>
@@ -16527,7 +16526,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B428" s="4" t="n">
+      <c r="B428" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C428" t="inlineStr"/>
@@ -16561,7 +16560,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B429" s="4" t="n">
+      <c r="B429" s="3" t="n">
         <v>43062</v>
       </c>
       <c r="C429" t="inlineStr"/>
@@ -16595,7 +16594,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B430" s="4" t="n">
+      <c r="B430" s="3" t="n">
         <v>43067</v>
       </c>
       <c r="C430" t="inlineStr"/>
@@ -16631,7 +16630,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B431" s="4" t="n">
+      <c r="B431" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C431" t="inlineStr"/>
@@ -16667,7 +16666,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B432" s="4" t="n">
+      <c r="B432" s="3" t="n">
         <v>43117</v>
       </c>
       <c r="C432" t="inlineStr">
@@ -16711,7 +16710,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B433" s="4" t="n">
+      <c r="B433" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C433" t="inlineStr">
@@ -16767,7 +16766,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B434" s="4" t="n">
+      <c r="B434" s="3" t="n">
         <v>42893</v>
       </c>
       <c r="C434" t="inlineStr"/>
@@ -16803,7 +16802,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B435" s="4" t="n">
+      <c r="B435" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C435" t="inlineStr"/>
@@ -16839,7 +16838,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B436" s="4" t="n">
+      <c r="B436" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C436" t="inlineStr"/>
@@ -16875,7 +16874,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B437" s="4" t="n">
+      <c r="B437" s="3" t="n">
         <v>42928</v>
       </c>
       <c r="C437" t="inlineStr"/>
@@ -16911,7 +16910,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B438" s="4" t="n">
+      <c r="B438" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C438" t="inlineStr"/>
@@ -16947,7 +16946,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B439" s="4" t="n">
+      <c r="B439" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C439" t="inlineStr"/>
@@ -16983,7 +16982,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B440" s="4" t="n">
+      <c r="B440" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C440" t="inlineStr"/>
@@ -17019,7 +17018,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B441" s="4" t="n">
+      <c r="B441" s="3" t="n">
         <v>42995</v>
       </c>
       <c r="C441" t="inlineStr"/>
@@ -17055,7 +17054,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B442" s="4" t="n">
+      <c r="B442" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C442" t="inlineStr"/>
@@ -17091,7 +17090,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B443" s="4" t="n">
+      <c r="B443" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C443" t="inlineStr"/>
@@ -17127,7 +17126,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B444" s="4" t="n">
+      <c r="B444" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C444" t="inlineStr"/>
@@ -17161,7 +17160,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B445" s="4" t="n">
+      <c r="B445" s="3" t="n">
         <v>43062</v>
       </c>
       <c r="C445" t="inlineStr"/>
@@ -17195,7 +17194,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B446" s="4" t="n">
+      <c r="B446" s="3" t="n">
         <v>43067</v>
       </c>
       <c r="C446" t="inlineStr"/>
@@ -17231,7 +17230,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B447" s="4" t="n">
+      <c r="B447" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C447" t="inlineStr"/>
@@ -17267,7 +17266,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B448" s="4" t="n">
+      <c r="B448" s="3" t="n">
         <v>43117</v>
       </c>
       <c r="C448" t="inlineStr">
@@ -17311,7 +17310,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B449" s="4" t="n">
+      <c r="B449" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C449" t="inlineStr">
@@ -17367,7 +17366,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B450" s="4" t="n">
+      <c r="B450" s="3" t="n">
         <v>42893</v>
       </c>
       <c r="C450" t="inlineStr"/>
@@ -17403,7 +17402,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B451" s="4" t="n">
+      <c r="B451" s="3" t="n">
         <v>42902</v>
       </c>
       <c r="C451" t="inlineStr"/>
@@ -17439,7 +17438,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B452" s="4" t="n">
+      <c r="B452" s="3" t="n">
         <v>42922</v>
       </c>
       <c r="C452" t="inlineStr"/>
@@ -17475,7 +17474,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B453" s="4" t="n">
+      <c r="B453" s="3" t="n">
         <v>42928</v>
       </c>
       <c r="C453" t="inlineStr"/>
@@ -17511,7 +17510,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B454" s="4" t="n">
+      <c r="B454" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="C454" t="inlineStr"/>
@@ -17547,7 +17546,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B455" s="4" t="n">
+      <c r="B455" s="3" t="n">
         <v>42969</v>
       </c>
       <c r="C455" t="inlineStr"/>
@@ -17583,7 +17582,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B456" s="4" t="n">
+      <c r="B456" s="3" t="n">
         <v>42984</v>
       </c>
       <c r="C456" t="inlineStr"/>
@@ -17619,7 +17618,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B457" s="4" t="n">
+      <c r="B457" s="3" t="n">
         <v>42995</v>
       </c>
       <c r="C457" t="inlineStr"/>
@@ -17655,7 +17654,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B458" s="4" t="n">
+      <c r="B458" s="3" t="n">
         <v>42999</v>
       </c>
       <c r="C458" t="inlineStr"/>
@@ -17691,7 +17690,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B459" s="4" t="n">
+      <c r="B459" s="3" t="n">
         <v>43012</v>
       </c>
       <c r="C459" t="inlineStr"/>
@@ -17727,7 +17726,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B460" s="4" t="n">
+      <c r="B460" s="3" t="n">
         <v>43047</v>
       </c>
       <c r="C460" t="inlineStr"/>
@@ -17761,7 +17760,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B461" s="4" t="n">
+      <c r="B461" s="3" t="n">
         <v>43062</v>
       </c>
       <c r="C461" t="inlineStr"/>
@@ -17795,7 +17794,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B462" s="4" t="n">
+      <c r="B462" s="3" t="n">
         <v>43067</v>
       </c>
       <c r="C462" t="inlineStr"/>
@@ -17831,7 +17830,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B463" s="4" t="n">
+      <c r="B463" s="3" t="n">
         <v>43076</v>
       </c>
       <c r="C463" t="inlineStr"/>
@@ -17867,7 +17866,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B464" s="4" t="n">
+      <c r="B464" s="3" t="n">
         <v>43117</v>
       </c>
       <c r="C464" t="inlineStr">
@@ -17911,7 +17910,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B465" s="4" t="n">
+      <c r="B465" s="3" t="n">
         <v>43125</v>
       </c>
       <c r="C465" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR HYC W17-02-2.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W17-02-2.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,7 +502,7 @@
       </c>
       <c r="M1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>Spectral.NDVI</t>
         </is>
       </c>
       <c r="N1" s="2" t="inlineStr">
@@ -566,7 +567,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -602,7 +603,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -638,7 +639,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -674,7 +675,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -710,7 +711,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -746,7 +747,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -782,7 +783,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -818,7 +819,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -854,7 +855,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -890,7 +891,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -926,7 +927,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -960,7 +961,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -994,7 +995,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1030,7 +1031,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1066,7 +1067,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -1110,7 +1111,7 @@
           <t>FAR HYC W17-02-2CvManning</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -1166,7 +1167,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1202,7 +1203,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1238,7 +1239,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1274,7 +1275,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1310,7 +1311,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1346,7 +1347,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1382,7 +1383,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1418,7 +1419,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1454,7 +1455,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1490,7 +1491,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1526,7 +1527,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1560,7 +1561,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1594,7 +1595,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1630,7 +1631,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1666,7 +1667,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -1710,7 +1711,7 @@
           <t>FAR HYC W17-02-2CvRevenue</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -1766,7 +1767,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1802,7 +1803,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1838,7 +1839,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1874,7 +1875,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1910,7 +1911,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1946,7 +1947,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1982,7 +1983,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2018,7 +2019,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2054,7 +2055,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2090,7 +2091,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2126,7 +2127,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2160,7 +2161,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2194,7 +2195,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2230,7 +2231,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2266,7 +2267,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C48" t="inlineStr">
@@ -2310,7 +2311,7 @@
           <t>FAR HYC W17-02-2CvRelay</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -2366,7 +2367,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2402,7 +2403,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2438,7 +2439,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2474,7 +2475,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2510,7 +2511,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2546,7 +2547,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2582,7 +2583,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2618,7 +2619,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2654,7 +2655,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2690,7 +2691,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2726,7 +2727,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2760,7 +2761,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2794,7 +2795,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2830,7 +2831,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2866,7 +2867,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -2910,7 +2911,7 @@
           <t>FAR HYC W17-02-2CvSolist</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C65" t="inlineStr">
@@ -2966,7 +2967,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -3002,7 +3003,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3038,7 +3039,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3074,7 +3075,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3110,7 +3111,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3146,7 +3147,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3182,7 +3183,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3218,7 +3219,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3254,7 +3255,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3290,7 +3291,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3326,7 +3327,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3360,7 +3361,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3394,7 +3395,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3430,7 +3431,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3466,7 +3467,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C80" t="inlineStr">
@@ -3510,7 +3511,7 @@
           <t>FAR HYC W17-02-2CvTuareg</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C81" t="inlineStr">
@@ -3566,7 +3567,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3602,7 +3603,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3638,7 +3639,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3674,7 +3675,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3710,7 +3711,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3746,7 +3747,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3782,7 +3783,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3818,7 +3819,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -3854,7 +3855,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -3890,7 +3891,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3926,7 +3927,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -3960,7 +3961,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -3994,7 +3995,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -4030,7 +4031,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4066,7 +4067,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C96" t="inlineStr">
@@ -4110,7 +4111,7 @@
           <t>FAR HYC W17-02-2CvTabasco</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C97" t="inlineStr">
@@ -4166,7 +4167,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4202,7 +4203,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4238,7 +4239,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4274,7 +4275,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4310,7 +4311,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4346,7 +4347,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4382,7 +4383,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4418,7 +4419,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4454,7 +4455,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4490,7 +4491,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4526,7 +4527,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4560,7 +4561,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4594,7 +4595,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4630,7 +4631,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4666,7 +4667,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C112" t="inlineStr">
@@ -4710,7 +4711,7 @@
           <t>FAR HYC W17-02-2CvHereford</t>
         </is>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C113" t="inlineStr">
@@ -4766,7 +4767,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -4802,7 +4803,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -4838,7 +4839,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -4874,7 +4875,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -4910,7 +4911,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -4946,7 +4947,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -4982,7 +4983,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -5018,7 +5019,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -5054,7 +5055,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -5090,7 +5091,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -5126,7 +5127,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -5160,7 +5161,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -5194,7 +5195,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5230,7 +5231,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B127" s="3" t="n">
+      <c r="B127" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5266,7 +5267,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B128" s="3" t="n">
+      <c r="B128" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C128" t="inlineStr">
@@ -5310,7 +5311,7 @@
           <t>FAR HYC W17-02-2CvViscount</t>
         </is>
       </c>
-      <c r="B129" s="3" t="n">
+      <c r="B129" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C129" t="inlineStr">
@@ -5366,7 +5367,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B130" s="3" t="n">
+      <c r="B130" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5402,7 +5403,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B131" s="3" t="n">
+      <c r="B131" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -5438,7 +5439,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B132" s="3" t="n">
+      <c r="B132" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -5474,7 +5475,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B133" s="3" t="n">
+      <c r="B133" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5510,7 +5511,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B134" s="3" t="n">
+      <c r="B134" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -5546,7 +5547,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B135" s="3" t="n">
+      <c r="B135" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -5582,7 +5583,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B136" s="3" t="n">
+      <c r="B136" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -5618,7 +5619,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B137" s="3" t="n">
+      <c r="B137" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -5654,7 +5655,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B138" s="3" t="n">
+      <c r="B138" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -5690,7 +5691,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B139" s="3" t="n">
+      <c r="B139" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -5726,7 +5727,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B140" s="3" t="n">
+      <c r="B140" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -5760,7 +5761,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B141" s="3" t="n">
+      <c r="B141" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -5794,7 +5795,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B142" s="3" t="n">
+      <c r="B142" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -5830,7 +5831,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B143" s="3" t="n">
+      <c r="B143" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -5866,7 +5867,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B144" s="3" t="n">
+      <c r="B144" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C144" t="inlineStr">
@@ -5910,7 +5911,7 @@
           <t>FAR HYC W17-02-2CvOakley</t>
         </is>
       </c>
-      <c r="B145" s="3" t="n">
+      <c r="B145" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C145" t="inlineStr">
@@ -5966,7 +5967,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B146" s="3" t="n">
+      <c r="B146" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -6002,7 +6003,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B147" s="3" t="n">
+      <c r="B147" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -6038,7 +6039,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B148" s="3" t="n">
+      <c r="B148" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -6074,7 +6075,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B149" s="3" t="n">
+      <c r="B149" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -6110,7 +6111,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B150" s="3" t="n">
+      <c r="B150" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -6146,7 +6147,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B151" s="3" t="n">
+      <c r="B151" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -6182,7 +6183,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B152" s="3" t="n">
+      <c r="B152" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -6218,7 +6219,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B153" s="3" t="n">
+      <c r="B153" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -6254,7 +6255,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B154" s="3" t="n">
+      <c r="B154" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -6290,7 +6291,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B155" s="3" t="n">
+      <c r="B155" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -6326,7 +6327,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B156" s="3" t="n">
+      <c r="B156" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -6360,7 +6361,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B157" s="3" t="n">
+      <c r="B157" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -6394,7 +6395,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B158" s="3" t="n">
+      <c r="B158" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -6430,7 +6431,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B159" s="3" t="n">
+      <c r="B159" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -6466,7 +6467,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B160" s="3" t="n">
+      <c r="B160" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C160" t="inlineStr">
@@ -6510,7 +6511,7 @@
           <t>FAR HYC W17-02-2CvCordiale</t>
         </is>
       </c>
-      <c r="B161" s="3" t="n">
+      <c r="B161" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C161" t="inlineStr">
@@ -6566,7 +6567,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B162" s="3" t="n">
+      <c r="B162" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -6602,7 +6603,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B163" s="3" t="n">
+      <c r="B163" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -6638,7 +6639,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B164" s="3" t="n">
+      <c r="B164" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -6674,7 +6675,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B165" s="3" t="n">
+      <c r="B165" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -6710,7 +6711,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B166" s="3" t="n">
+      <c r="B166" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -6746,7 +6747,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B167" s="3" t="n">
+      <c r="B167" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -6782,7 +6783,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B168" s="3" t="n">
+      <c r="B168" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -6818,7 +6819,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B169" s="3" t="n">
+      <c r="B169" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -6854,7 +6855,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B170" s="3" t="n">
+      <c r="B170" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -6890,7 +6891,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B171" s="3" t="n">
+      <c r="B171" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -6926,7 +6927,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B172" s="3" t="n">
+      <c r="B172" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -6960,7 +6961,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B173" s="3" t="n">
+      <c r="B173" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -6994,7 +6995,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B174" s="3" t="n">
+      <c r="B174" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -7030,7 +7031,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B175" s="3" t="n">
+      <c r="B175" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -7066,7 +7067,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B176" s="3" t="n">
+      <c r="B176" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C176" t="inlineStr">
@@ -7110,7 +7111,7 @@
           <t>FAR HYC W17-02-2CvTrojan</t>
         </is>
       </c>
-      <c r="B177" s="3" t="n">
+      <c r="B177" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C177" t="inlineStr">
@@ -7166,7 +7167,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B178" s="3" t="n">
+      <c r="B178" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -7202,7 +7203,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B179" s="3" t="n">
+      <c r="B179" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -7238,7 +7239,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B180" s="3" t="n">
+      <c r="B180" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -7274,7 +7275,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B181" s="3" t="n">
+      <c r="B181" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -7310,7 +7311,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B182" s="3" t="n">
+      <c r="B182" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -7346,7 +7347,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B183" s="3" t="n">
+      <c r="B183" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -7382,7 +7383,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B184" s="3" t="n">
+      <c r="B184" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -7418,7 +7419,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B185" s="3" t="n">
+      <c r="B185" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -7454,7 +7455,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B186" s="3" t="n">
+      <c r="B186" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -7490,7 +7491,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B187" s="3" t="n">
+      <c r="B187" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -7526,7 +7527,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B188" s="3" t="n">
+      <c r="B188" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -7560,7 +7561,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B189" s="3" t="n">
+      <c r="B189" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -7594,7 +7595,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B190" s="3" t="n">
+      <c r="B190" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -7630,7 +7631,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B191" s="3" t="n">
+      <c r="B191" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -7666,7 +7667,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B192" s="3" t="n">
+      <c r="B192" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C192" t="inlineStr">
@@ -7710,7 +7711,7 @@
           <t>FAR HYC W17-02-2CvAsano</t>
         </is>
       </c>
-      <c r="B193" s="3" t="n">
+      <c r="B193" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C193" t="inlineStr">
@@ -7766,7 +7767,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B194" s="3" t="n">
+      <c r="B194" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -7802,7 +7803,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B195" s="3" t="n">
+      <c r="B195" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -7838,7 +7839,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B196" s="3" t="n">
+      <c r="B196" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -7874,7 +7875,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B197" s="3" t="n">
+      <c r="B197" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -7910,7 +7911,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B198" s="3" t="n">
+      <c r="B198" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -7946,7 +7947,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B199" s="3" t="n">
+      <c r="B199" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -7982,7 +7983,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B200" s="3" t="n">
+      <c r="B200" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -8018,7 +8019,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B201" s="3" t="n">
+      <c r="B201" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -8054,7 +8055,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B202" s="3" t="n">
+      <c r="B202" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -8090,7 +8091,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B203" s="3" t="n">
+      <c r="B203" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -8126,7 +8127,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B204" s="3" t="n">
+      <c r="B204" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -8160,7 +8161,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B205" s="3" t="n">
+      <c r="B205" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -8194,7 +8195,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B206" s="3" t="n">
+      <c r="B206" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -8230,7 +8231,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B207" s="3" t="n">
+      <c r="B207" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -8266,7 +8267,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B208" s="3" t="n">
+      <c r="B208" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C208" t="inlineStr">
@@ -8310,7 +8311,7 @@
           <t>FAR HYC W17-02-2CvXi19</t>
         </is>
       </c>
-      <c r="B209" s="3" t="n">
+      <c r="B209" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C209" t="inlineStr">
@@ -8366,7 +8367,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B210" s="3" t="n">
+      <c r="B210" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -8402,7 +8403,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B211" s="3" t="n">
+      <c r="B211" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -8438,7 +8439,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B212" s="3" t="n">
+      <c r="B212" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -8474,7 +8475,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B213" s="3" t="n">
+      <c r="B213" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -8510,7 +8511,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B214" s="3" t="n">
+      <c r="B214" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -8546,7 +8547,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B215" s="3" t="n">
+      <c r="B215" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -8582,7 +8583,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B216" s="3" t="n">
+      <c r="B216" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -8618,7 +8619,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B217" s="3" t="n">
+      <c r="B217" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -8654,7 +8655,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B218" s="3" t="n">
+      <c r="B218" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -8690,7 +8691,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B219" s="3" t="n">
+      <c r="B219" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -8726,7 +8727,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B220" s="3" t="n">
+      <c r="B220" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -8760,7 +8761,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B221" s="3" t="n">
+      <c r="B221" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -8794,7 +8795,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B222" s="3" t="n">
+      <c r="B222" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -8830,7 +8831,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B223" s="3" t="n">
+      <c r="B223" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -8866,7 +8867,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B224" s="3" t="n">
+      <c r="B224" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C224" t="inlineStr">
@@ -8910,7 +8911,7 @@
           <t>FAR HYC W17-02-2CvEDGE06-018b-10</t>
         </is>
       </c>
-      <c r="B225" s="3" t="n">
+      <c r="B225" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C225" t="inlineStr">
@@ -8966,7 +8967,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B226" s="3" t="n">
+      <c r="B226" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -9002,7 +9003,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B227" s="3" t="n">
+      <c r="B227" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -9038,7 +9039,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B228" s="3" t="n">
+      <c r="B228" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -9074,7 +9075,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B229" s="3" t="n">
+      <c r="B229" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -9110,7 +9111,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B230" s="3" t="n">
+      <c r="B230" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -9146,7 +9147,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B231" s="3" t="n">
+      <c r="B231" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -9182,7 +9183,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B232" s="3" t="n">
+      <c r="B232" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -9218,7 +9219,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B233" s="3" t="n">
+      <c r="B233" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -9254,7 +9255,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B234" s="3" t="n">
+      <c r="B234" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -9290,7 +9291,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B235" s="3" t="n">
+      <c r="B235" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -9326,7 +9327,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B236" s="3" t="n">
+      <c r="B236" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -9360,7 +9361,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B237" s="3" t="n">
+      <c r="B237" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -9394,7 +9395,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B238" s="3" t="n">
+      <c r="B238" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -9430,7 +9431,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B239" s="3" t="n">
+      <c r="B239" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -9466,7 +9467,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B240" s="3" t="n">
+      <c r="B240" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C240" t="inlineStr">
@@ -9510,7 +9511,7 @@
           <t>FAR HYC W17-02-2CvEDGE W12-090-04</t>
         </is>
       </c>
-      <c r="B241" s="3" t="n">
+      <c r="B241" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C241" t="inlineStr">
@@ -9566,7 +9567,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B242" s="3" t="n">
+      <c r="B242" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -9602,7 +9603,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B243" s="3" t="n">
+      <c r="B243" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C243" t="inlineStr"/>
@@ -9638,7 +9639,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B244" s="3" t="n">
+      <c r="B244" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -9674,7 +9675,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B245" s="3" t="n">
+      <c r="B245" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C245" t="inlineStr"/>
@@ -9710,7 +9711,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B246" s="3" t="n">
+      <c r="B246" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -9746,7 +9747,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B247" s="3" t="n">
+      <c r="B247" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C247" t="inlineStr"/>
@@ -9782,7 +9783,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B248" s="3" t="n">
+      <c r="B248" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C248" t="inlineStr"/>
@@ -9818,7 +9819,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B249" s="3" t="n">
+      <c r="B249" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -9854,7 +9855,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B250" s="3" t="n">
+      <c r="B250" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -9890,7 +9891,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B251" s="3" t="n">
+      <c r="B251" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C251" t="inlineStr"/>
@@ -9926,7 +9927,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B252" s="3" t="n">
+      <c r="B252" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C252" t="inlineStr"/>
@@ -9960,7 +9961,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B253" s="3" t="n">
+      <c r="B253" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C253" t="inlineStr"/>
@@ -9994,7 +9995,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B254" s="3" t="n">
+      <c r="B254" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -10030,7 +10031,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B255" s="3" t="n">
+      <c r="B255" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C255" t="inlineStr"/>
@@ -10066,7 +10067,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B256" s="3" t="n">
+      <c r="B256" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C256" t="inlineStr">
@@ -10110,7 +10111,7 @@
           <t>FAR HYC W17-02-2CvAdv08_0008</t>
         </is>
       </c>
-      <c r="B257" s="3" t="n">
+      <c r="B257" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C257" t="inlineStr">
@@ -10166,7 +10167,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B258" s="3" t="n">
+      <c r="B258" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C258" t="inlineStr"/>
@@ -10202,7 +10203,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B259" s="3" t="n">
+      <c r="B259" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C259" t="inlineStr"/>
@@ -10238,7 +10239,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B260" s="3" t="n">
+      <c r="B260" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C260" t="inlineStr"/>
@@ -10274,7 +10275,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B261" s="3" t="n">
+      <c r="B261" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -10310,7 +10311,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B262" s="3" t="n">
+      <c r="B262" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C262" t="inlineStr"/>
@@ -10346,7 +10347,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B263" s="3" t="n">
+      <c r="B263" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -10382,7 +10383,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B264" s="3" t="n">
+      <c r="B264" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C264" t="inlineStr"/>
@@ -10418,7 +10419,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B265" s="3" t="n">
+      <c r="B265" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C265" t="inlineStr"/>
@@ -10454,7 +10455,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B266" s="3" t="n">
+      <c r="B266" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C266" t="inlineStr"/>
@@ -10490,7 +10491,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B267" s="3" t="n">
+      <c r="B267" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C267" t="inlineStr"/>
@@ -10526,7 +10527,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B268" s="3" t="n">
+      <c r="B268" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C268" t="inlineStr"/>
@@ -10560,7 +10561,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B269" s="3" t="n">
+      <c r="B269" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C269" t="inlineStr"/>
@@ -10594,7 +10595,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B270" s="3" t="n">
+      <c r="B270" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C270" t="inlineStr"/>
@@ -10630,7 +10631,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B271" s="3" t="n">
+      <c r="B271" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C271" t="inlineStr"/>
@@ -10666,7 +10667,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B272" s="3" t="n">
+      <c r="B272" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C272" t="inlineStr">
@@ -10710,7 +10711,7 @@
           <t>FAR HYC W17-02-2CvCS170</t>
         </is>
       </c>
-      <c r="B273" s="3" t="n">
+      <c r="B273" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C273" t="inlineStr">
@@ -10766,7 +10767,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B274" s="3" t="n">
+      <c r="B274" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C274" t="inlineStr"/>
@@ -10802,7 +10803,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B275" s="3" t="n">
+      <c r="B275" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C275" t="inlineStr"/>
@@ -10838,7 +10839,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B276" s="3" t="n">
+      <c r="B276" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C276" t="inlineStr"/>
@@ -10874,7 +10875,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B277" s="3" t="n">
+      <c r="B277" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C277" t="inlineStr"/>
@@ -10910,7 +10911,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B278" s="3" t="n">
+      <c r="B278" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C278" t="inlineStr"/>
@@ -10946,7 +10947,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B279" s="3" t="n">
+      <c r="B279" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C279" t="inlineStr"/>
@@ -10982,7 +10983,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B280" s="3" t="n">
+      <c r="B280" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C280" t="inlineStr"/>
@@ -11018,7 +11019,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B281" s="3" t="n">
+      <c r="B281" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C281" t="inlineStr"/>
@@ -11054,7 +11055,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B282" s="3" t="n">
+      <c r="B282" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C282" t="inlineStr"/>
@@ -11090,7 +11091,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B283" s="3" t="n">
+      <c r="B283" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C283" t="inlineStr"/>
@@ -11126,7 +11127,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B284" s="3" t="n">
+      <c r="B284" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C284" t="inlineStr"/>
@@ -11160,7 +11161,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B285" s="3" t="n">
+      <c r="B285" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C285" t="inlineStr"/>
@@ -11194,7 +11195,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B286" s="3" t="n">
+      <c r="B286" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C286" t="inlineStr"/>
@@ -11230,7 +11231,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B287" s="3" t="n">
+      <c r="B287" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C287" t="inlineStr"/>
@@ -11266,7 +11267,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B288" s="3" t="n">
+      <c r="B288" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C288" t="inlineStr">
@@ -11310,7 +11311,7 @@
           <t>FAR HYC W17-02-2CvCS611</t>
         </is>
       </c>
-      <c r="B289" s="3" t="n">
+      <c r="B289" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C289" t="inlineStr">
@@ -11366,7 +11367,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B290" s="3" t="n">
+      <c r="B290" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C290" t="inlineStr"/>
@@ -11402,7 +11403,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B291" s="3" t="n">
+      <c r="B291" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C291" t="inlineStr"/>
@@ -11438,7 +11439,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B292" s="3" t="n">
+      <c r="B292" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C292" t="inlineStr"/>
@@ -11474,7 +11475,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B293" s="3" t="n">
+      <c r="B293" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C293" t="inlineStr"/>
@@ -11510,7 +11511,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B294" s="3" t="n">
+      <c r="B294" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C294" t="inlineStr"/>
@@ -11546,7 +11547,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B295" s="3" t="n">
+      <c r="B295" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C295" t="inlineStr"/>
@@ -11582,7 +11583,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B296" s="3" t="n">
+      <c r="B296" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C296" t="inlineStr"/>
@@ -11618,7 +11619,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B297" s="3" t="n">
+      <c r="B297" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C297" t="inlineStr"/>
@@ -11654,7 +11655,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B298" s="3" t="n">
+      <c r="B298" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C298" t="inlineStr"/>
@@ -11690,7 +11691,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B299" s="3" t="n">
+      <c r="B299" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C299" t="inlineStr"/>
@@ -11726,7 +11727,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B300" s="3" t="n">
+      <c r="B300" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C300" t="inlineStr"/>
@@ -11760,7 +11761,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B301" s="3" t="n">
+      <c r="B301" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C301" t="inlineStr"/>
@@ -11794,7 +11795,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B302" s="3" t="n">
+      <c r="B302" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C302" t="inlineStr"/>
@@ -11830,7 +11831,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B303" s="3" t="n">
+      <c r="B303" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C303" t="inlineStr"/>
@@ -11866,7 +11867,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B304" s="3" t="n">
+      <c r="B304" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C304" t="inlineStr">
@@ -11910,7 +11911,7 @@
           <t>FAR HYC W17-02-2CvCSR65</t>
         </is>
       </c>
-      <c r="B305" s="3" t="n">
+      <c r="B305" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C305" t="inlineStr">
@@ -11966,7 +11967,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B306" s="3" t="n">
+      <c r="B306" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C306" t="inlineStr"/>
@@ -12002,7 +12003,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B307" s="3" t="n">
+      <c r="B307" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C307" t="inlineStr"/>
@@ -12038,7 +12039,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B308" s="3" t="n">
+      <c r="B308" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C308" t="inlineStr"/>
@@ -12074,7 +12075,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B309" s="3" t="n">
+      <c r="B309" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C309" t="inlineStr"/>
@@ -12110,7 +12111,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B310" s="3" t="n">
+      <c r="B310" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C310" t="inlineStr"/>
@@ -12146,7 +12147,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B311" s="3" t="n">
+      <c r="B311" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C311" t="inlineStr"/>
@@ -12182,7 +12183,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B312" s="3" t="n">
+      <c r="B312" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C312" t="inlineStr"/>
@@ -12218,7 +12219,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B313" s="3" t="n">
+      <c r="B313" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C313" t="inlineStr"/>
@@ -12254,7 +12255,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B314" s="3" t="n">
+      <c r="B314" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C314" t="inlineStr"/>
@@ -12290,7 +12291,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B315" s="3" t="n">
+      <c r="B315" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C315" t="inlineStr"/>
@@ -12326,7 +12327,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B316" s="3" t="n">
+      <c r="B316" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C316" t="inlineStr"/>
@@ -12360,7 +12361,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B317" s="3" t="n">
+      <c r="B317" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C317" t="inlineStr"/>
@@ -12394,7 +12395,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B318" s="3" t="n">
+      <c r="B318" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C318" t="inlineStr"/>
@@ -12430,7 +12431,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B319" s="3" t="n">
+      <c r="B319" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C319" t="inlineStr"/>
@@ -12466,7 +12467,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B320" s="3" t="n">
+      <c r="B320" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C320" t="inlineStr">
@@ -12510,7 +12511,7 @@
           <t>FAR HYC W17-02-2CvCS98152.79</t>
         </is>
       </c>
-      <c r="B321" s="3" t="n">
+      <c r="B321" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C321" t="inlineStr">
@@ -12566,7 +12567,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B322" s="3" t="n">
+      <c r="B322" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C322" t="inlineStr"/>
@@ -12602,7 +12603,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B323" s="3" t="n">
+      <c r="B323" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C323" t="inlineStr"/>
@@ -12638,7 +12639,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B324" s="3" t="n">
+      <c r="B324" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C324" t="inlineStr"/>
@@ -12674,7 +12675,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B325" s="3" t="n">
+      <c r="B325" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C325" t="inlineStr"/>
@@ -12710,7 +12711,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B326" s="3" t="n">
+      <c r="B326" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C326" t="inlineStr"/>
@@ -12746,7 +12747,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B327" s="3" t="n">
+      <c r="B327" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C327" t="inlineStr"/>
@@ -12782,7 +12783,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B328" s="3" t="n">
+      <c r="B328" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C328" t="inlineStr"/>
@@ -12818,7 +12819,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B329" s="3" t="n">
+      <c r="B329" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C329" t="inlineStr"/>
@@ -12854,7 +12855,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B330" s="3" t="n">
+      <c r="B330" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C330" t="inlineStr"/>
@@ -12890,7 +12891,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B331" s="3" t="n">
+      <c r="B331" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C331" t="inlineStr"/>
@@ -12926,7 +12927,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B332" s="3" t="n">
+      <c r="B332" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C332" t="inlineStr"/>
@@ -12960,7 +12961,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B333" s="3" t="n">
+      <c r="B333" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C333" t="inlineStr"/>
@@ -12994,7 +12995,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B334" s="3" t="n">
+      <c r="B334" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C334" t="inlineStr"/>
@@ -13030,7 +13031,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B335" s="3" t="n">
+      <c r="B335" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C335" t="inlineStr"/>
@@ -13066,7 +13067,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B336" s="3" t="n">
+      <c r="B336" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C336" t="inlineStr">
@@ -13110,7 +13111,7 @@
           <t>FAR HYC W17-02-2CvKittyhawk</t>
         </is>
       </c>
-      <c r="B337" s="3" t="n">
+      <c r="B337" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C337" t="inlineStr">
@@ -13166,7 +13167,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B338" s="3" t="n">
+      <c r="B338" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C338" t="inlineStr"/>
@@ -13202,7 +13203,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B339" s="3" t="n">
+      <c r="B339" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C339" t="inlineStr"/>
@@ -13238,7 +13239,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B340" s="3" t="n">
+      <c r="B340" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C340" t="inlineStr"/>
@@ -13274,7 +13275,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B341" s="3" t="n">
+      <c r="B341" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C341" t="inlineStr"/>
@@ -13310,7 +13311,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B342" s="3" t="n">
+      <c r="B342" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C342" t="inlineStr"/>
@@ -13346,7 +13347,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B343" s="3" t="n">
+      <c r="B343" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C343" t="inlineStr"/>
@@ -13382,7 +13383,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B344" s="3" t="n">
+      <c r="B344" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C344" t="inlineStr"/>
@@ -13418,7 +13419,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B345" s="3" t="n">
+      <c r="B345" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C345" t="inlineStr"/>
@@ -13454,7 +13455,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B346" s="3" t="n">
+      <c r="B346" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C346" t="inlineStr"/>
@@ -13490,7 +13491,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B347" s="3" t="n">
+      <c r="B347" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C347" t="inlineStr"/>
@@ -13526,7 +13527,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B348" s="3" t="n">
+      <c r="B348" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C348" t="inlineStr"/>
@@ -13560,7 +13561,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B349" s="3" t="n">
+      <c r="B349" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C349" t="inlineStr"/>
@@ -13594,7 +13595,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B350" s="3" t="n">
+      <c r="B350" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C350" t="inlineStr"/>
@@ -13630,7 +13631,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B351" s="3" t="n">
+      <c r="B351" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C351" t="inlineStr"/>
@@ -13666,7 +13667,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B352" s="3" t="n">
+      <c r="B352" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C352" t="inlineStr">
@@ -13710,7 +13711,7 @@
           <t>FAR HYC W17-02-2CvBA 26.35</t>
         </is>
       </c>
-      <c r="B353" s="3" t="n">
+      <c r="B353" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C353" t="inlineStr">
@@ -13766,7 +13767,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B354" s="3" t="n">
+      <c r="B354" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C354" t="inlineStr"/>
@@ -13802,7 +13803,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B355" s="3" t="n">
+      <c r="B355" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C355" t="inlineStr"/>
@@ -13838,7 +13839,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B356" s="3" t="n">
+      <c r="B356" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C356" t="inlineStr"/>
@@ -13874,7 +13875,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B357" s="3" t="n">
+      <c r="B357" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C357" t="inlineStr"/>
@@ -13910,7 +13911,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B358" s="3" t="n">
+      <c r="B358" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C358" t="inlineStr"/>
@@ -13946,7 +13947,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B359" s="3" t="n">
+      <c r="B359" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C359" t="inlineStr"/>
@@ -13982,7 +13983,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B360" s="3" t="n">
+      <c r="B360" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C360" t="inlineStr"/>
@@ -14018,7 +14019,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B361" s="3" t="n">
+      <c r="B361" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C361" t="inlineStr"/>
@@ -14054,7 +14055,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B362" s="3" t="n">
+      <c r="B362" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C362" t="inlineStr"/>
@@ -14090,7 +14091,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B363" s="3" t="n">
+      <c r="B363" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C363" t="inlineStr"/>
@@ -14126,7 +14127,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B364" s="3" t="n">
+      <c r="B364" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C364" t="inlineStr"/>
@@ -14160,7 +14161,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B365" s="3" t="n">
+      <c r="B365" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C365" t="inlineStr"/>
@@ -14194,7 +14195,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B366" s="3" t="n">
+      <c r="B366" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C366" t="inlineStr"/>
@@ -14230,7 +14231,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B367" s="3" t="n">
+      <c r="B367" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C367" t="inlineStr"/>
@@ -14266,7 +14267,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B368" s="3" t="n">
+      <c r="B368" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C368" t="inlineStr">
@@ -14310,7 +14311,7 @@
           <t>FAR HYC W17-02-2CvEinstein</t>
         </is>
       </c>
-      <c r="B369" s="3" t="n">
+      <c r="B369" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C369" t="inlineStr">
@@ -14366,7 +14367,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B370" s="3" t="n">
+      <c r="B370" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C370" t="inlineStr"/>
@@ -14402,7 +14403,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B371" s="3" t="n">
+      <c r="B371" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C371" t="inlineStr"/>
@@ -14438,7 +14439,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B372" s="3" t="n">
+      <c r="B372" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C372" t="inlineStr"/>
@@ -14474,7 +14475,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B373" s="3" t="n">
+      <c r="B373" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C373" t="inlineStr"/>
@@ -14510,7 +14511,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B374" s="3" t="n">
+      <c r="B374" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C374" t="inlineStr"/>
@@ -14546,7 +14547,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B375" s="3" t="n">
+      <c r="B375" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C375" t="inlineStr"/>
@@ -14582,7 +14583,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B376" s="3" t="n">
+      <c r="B376" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C376" t="inlineStr"/>
@@ -14618,7 +14619,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B377" s="3" t="n">
+      <c r="B377" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C377" t="inlineStr"/>
@@ -14654,7 +14655,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B378" s="3" t="n">
+      <c r="B378" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C378" t="inlineStr"/>
@@ -14690,7 +14691,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B379" s="3" t="n">
+      <c r="B379" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C379" t="inlineStr"/>
@@ -14726,7 +14727,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B380" s="3" t="n">
+      <c r="B380" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C380" t="inlineStr"/>
@@ -14760,7 +14761,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B381" s="3" t="n">
+      <c r="B381" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C381" t="inlineStr"/>
@@ -14794,7 +14795,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B382" s="3" t="n">
+      <c r="B382" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C382" t="inlineStr"/>
@@ -14830,7 +14831,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B383" s="3" t="n">
+      <c r="B383" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C383" t="inlineStr"/>
@@ -14866,7 +14867,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B384" s="3" t="n">
+      <c r="B384" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C384" t="inlineStr">
@@ -14910,7 +14911,7 @@
           <t>FAR HYC W17-02-2CvCS3250.30</t>
         </is>
       </c>
-      <c r="B385" s="3" t="n">
+      <c r="B385" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C385" t="inlineStr">
@@ -14966,7 +14967,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B386" s="3" t="n">
+      <c r="B386" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C386" t="inlineStr"/>
@@ -15002,7 +15003,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B387" s="3" t="n">
+      <c r="B387" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C387" t="inlineStr"/>
@@ -15038,7 +15039,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B388" s="3" t="n">
+      <c r="B388" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C388" t="inlineStr"/>
@@ -15074,7 +15075,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B389" s="3" t="n">
+      <c r="B389" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C389" t="inlineStr"/>
@@ -15110,7 +15111,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B390" s="3" t="n">
+      <c r="B390" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C390" t="inlineStr"/>
@@ -15146,7 +15147,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B391" s="3" t="n">
+      <c r="B391" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C391" t="inlineStr"/>
@@ -15182,7 +15183,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B392" s="3" t="n">
+      <c r="B392" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C392" t="inlineStr"/>
@@ -15218,7 +15219,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B393" s="3" t="n">
+      <c r="B393" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C393" t="inlineStr"/>
@@ -15254,7 +15255,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B394" s="3" t="n">
+      <c r="B394" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C394" t="inlineStr"/>
@@ -15290,7 +15291,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B395" s="3" t="n">
+      <c r="B395" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C395" t="inlineStr"/>
@@ -15326,7 +15327,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B396" s="3" t="n">
+      <c r="B396" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C396" t="inlineStr"/>
@@ -15360,7 +15361,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B397" s="3" t="n">
+      <c r="B397" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C397" t="inlineStr"/>
@@ -15394,7 +15395,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B398" s="3" t="n">
+      <c r="B398" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C398" t="inlineStr"/>
@@ -15430,7 +15431,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B399" s="3" t="n">
+      <c r="B399" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C399" t="inlineStr"/>
@@ -15466,7 +15467,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B400" s="3" t="n">
+      <c r="B400" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C400" t="inlineStr">
@@ -15510,7 +15511,7 @@
           <t>FAR HYC W17-02-2CvCSQ496.88</t>
         </is>
       </c>
-      <c r="B401" s="3" t="n">
+      <c r="B401" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C401" t="inlineStr">
@@ -15566,7 +15567,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B402" s="3" t="n">
+      <c r="B402" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C402" t="inlineStr"/>
@@ -15602,7 +15603,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B403" s="3" t="n">
+      <c r="B403" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C403" t="inlineStr"/>
@@ -15638,7 +15639,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B404" s="3" t="n">
+      <c r="B404" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C404" t="inlineStr"/>
@@ -15674,7 +15675,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B405" s="3" t="n">
+      <c r="B405" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C405" t="inlineStr"/>
@@ -15710,7 +15711,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B406" s="3" t="n">
+      <c r="B406" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C406" t="inlineStr"/>
@@ -15746,7 +15747,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B407" s="3" t="n">
+      <c r="B407" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C407" t="inlineStr"/>
@@ -15782,7 +15783,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B408" s="3" t="n">
+      <c r="B408" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C408" t="inlineStr"/>
@@ -15818,7 +15819,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B409" s="3" t="n">
+      <c r="B409" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C409" t="inlineStr"/>
@@ -15854,7 +15855,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B410" s="3" t="n">
+      <c r="B410" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C410" t="inlineStr"/>
@@ -15890,7 +15891,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B411" s="3" t="n">
+      <c r="B411" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C411" t="inlineStr"/>
@@ -15926,7 +15927,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B412" s="3" t="n">
+      <c r="B412" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C412" t="inlineStr"/>
@@ -15960,7 +15961,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B413" s="3" t="n">
+      <c r="B413" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C413" t="inlineStr"/>
@@ -15994,7 +15995,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B414" s="3" t="n">
+      <c r="B414" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C414" t="inlineStr"/>
@@ -16030,7 +16031,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B415" s="3" t="n">
+      <c r="B415" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C415" t="inlineStr"/>
@@ -16066,7 +16067,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B416" s="3" t="n">
+      <c r="B416" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C416" t="inlineStr">
@@ -16110,7 +16111,7 @@
           <t>FAR HYC W17-02-2CvADV14.1335</t>
         </is>
       </c>
-      <c r="B417" s="3" t="n">
+      <c r="B417" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C417" t="inlineStr">
@@ -16166,7 +16167,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B418" s="3" t="n">
+      <c r="B418" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C418" t="inlineStr"/>
@@ -16202,7 +16203,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B419" s="3" t="n">
+      <c r="B419" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C419" t="inlineStr"/>
@@ -16238,7 +16239,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B420" s="3" t="n">
+      <c r="B420" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C420" t="inlineStr"/>
@@ -16274,7 +16275,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B421" s="3" t="n">
+      <c r="B421" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C421" t="inlineStr"/>
@@ -16310,7 +16311,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B422" s="3" t="n">
+      <c r="B422" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C422" t="inlineStr"/>
@@ -16346,7 +16347,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B423" s="3" t="n">
+      <c r="B423" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C423" t="inlineStr"/>
@@ -16382,7 +16383,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B424" s="3" t="n">
+      <c r="B424" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C424" t="inlineStr"/>
@@ -16418,7 +16419,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B425" s="3" t="n">
+      <c r="B425" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C425" t="inlineStr"/>
@@ -16454,7 +16455,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B426" s="3" t="n">
+      <c r="B426" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C426" t="inlineStr"/>
@@ -16490,7 +16491,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B427" s="3" t="n">
+      <c r="B427" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C427" t="inlineStr"/>
@@ -16526,7 +16527,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B428" s="3" t="n">
+      <c r="B428" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C428" t="inlineStr"/>
@@ -16560,7 +16561,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B429" s="3" t="n">
+      <c r="B429" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C429" t="inlineStr"/>
@@ -16594,7 +16595,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B430" s="3" t="n">
+      <c r="B430" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C430" t="inlineStr"/>
@@ -16630,7 +16631,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B431" s="3" t="n">
+      <c r="B431" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C431" t="inlineStr"/>
@@ -16666,7 +16667,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B432" s="3" t="n">
+      <c r="B432" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C432" t="inlineStr">
@@ -16710,7 +16711,7 @@
           <t>FAR HYC W17-02-2CvADV14.1292</t>
         </is>
       </c>
-      <c r="B433" s="3" t="n">
+      <c r="B433" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C433" t="inlineStr">
@@ -16766,7 +16767,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B434" s="3" t="n">
+      <c r="B434" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C434" t="inlineStr"/>
@@ -16802,7 +16803,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B435" s="3" t="n">
+      <c r="B435" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C435" t="inlineStr"/>
@@ -16838,7 +16839,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B436" s="3" t="n">
+      <c r="B436" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C436" t="inlineStr"/>
@@ -16874,7 +16875,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B437" s="3" t="n">
+      <c r="B437" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C437" t="inlineStr"/>
@@ -16910,7 +16911,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B438" s="3" t="n">
+      <c r="B438" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C438" t="inlineStr"/>
@@ -16946,7 +16947,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B439" s="3" t="n">
+      <c r="B439" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C439" t="inlineStr"/>
@@ -16982,7 +16983,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B440" s="3" t="n">
+      <c r="B440" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C440" t="inlineStr"/>
@@ -17018,7 +17019,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B441" s="3" t="n">
+      <c r="B441" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C441" t="inlineStr"/>
@@ -17054,7 +17055,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B442" s="3" t="n">
+      <c r="B442" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C442" t="inlineStr"/>
@@ -17090,7 +17091,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B443" s="3" t="n">
+      <c r="B443" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C443" t="inlineStr"/>
@@ -17126,7 +17127,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B444" s="3" t="n">
+      <c r="B444" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C444" t="inlineStr"/>
@@ -17160,7 +17161,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B445" s="3" t="n">
+      <c r="B445" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C445" t="inlineStr"/>
@@ -17194,7 +17195,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B446" s="3" t="n">
+      <c r="B446" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C446" t="inlineStr"/>
@@ -17230,7 +17231,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B447" s="3" t="n">
+      <c r="B447" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C447" t="inlineStr"/>
@@ -17266,7 +17267,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B448" s="3" t="n">
+      <c r="B448" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C448" t="inlineStr">
@@ -17310,7 +17311,7 @@
           <t>FAR HYC W17-02-2CvApache</t>
         </is>
       </c>
-      <c r="B449" s="3" t="n">
+      <c r="B449" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C449" t="inlineStr">
@@ -17366,7 +17367,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B450" s="3" t="n">
+      <c r="B450" s="4" t="n">
         <v>42893</v>
       </c>
       <c r="C450" t="inlineStr"/>
@@ -17402,7 +17403,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B451" s="3" t="n">
+      <c r="B451" s="4" t="n">
         <v>42902</v>
       </c>
       <c r="C451" t="inlineStr"/>
@@ -17438,7 +17439,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B452" s="3" t="n">
+      <c r="B452" s="4" t="n">
         <v>42922</v>
       </c>
       <c r="C452" t="inlineStr"/>
@@ -17474,7 +17475,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B453" s="3" t="n">
+      <c r="B453" s="4" t="n">
         <v>42928</v>
       </c>
       <c r="C453" t="inlineStr"/>
@@ -17510,7 +17511,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B454" s="3" t="n">
+      <c r="B454" s="4" t="n">
         <v>42947</v>
       </c>
       <c r="C454" t="inlineStr"/>
@@ -17546,7 +17547,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B455" s="3" t="n">
+      <c r="B455" s="4" t="n">
         <v>42969</v>
       </c>
       <c r="C455" t="inlineStr"/>
@@ -17582,7 +17583,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B456" s="3" t="n">
+      <c r="B456" s="4" t="n">
         <v>42984</v>
       </c>
       <c r="C456" t="inlineStr"/>
@@ -17618,7 +17619,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B457" s="3" t="n">
+      <c r="B457" s="4" t="n">
         <v>42995</v>
       </c>
       <c r="C457" t="inlineStr"/>
@@ -17654,7 +17655,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B458" s="3" t="n">
+      <c r="B458" s="4" t="n">
         <v>42999</v>
       </c>
       <c r="C458" t="inlineStr"/>
@@ -17690,7 +17691,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B459" s="3" t="n">
+      <c r="B459" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C459" t="inlineStr"/>
@@ -17726,7 +17727,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B460" s="3" t="n">
+      <c r="B460" s="4" t="n">
         <v>43047</v>
       </c>
       <c r="C460" t="inlineStr"/>
@@ -17760,7 +17761,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B461" s="3" t="n">
+      <c r="B461" s="4" t="n">
         <v>43062</v>
       </c>
       <c r="C461" t="inlineStr"/>
@@ -17794,7 +17795,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B462" s="3" t="n">
+      <c r="B462" s="4" t="n">
         <v>43067</v>
       </c>
       <c r="C462" t="inlineStr"/>
@@ -17830,7 +17831,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B463" s="3" t="n">
+      <c r="B463" s="4" t="n">
         <v>43076</v>
       </c>
       <c r="C463" t="inlineStr"/>
@@ -17866,7 +17867,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B464" s="3" t="n">
+      <c r="B464" s="4" t="n">
         <v>43117</v>
       </c>
       <c r="C464" t="inlineStr">
@@ -17910,7 +17911,7 @@
           <t>FAR HYC W17-02-2CvKowari (Trit)</t>
         </is>
       </c>
-      <c r="B465" s="3" t="n">
+      <c r="B465" s="4" t="n">
         <v>43125</v>
       </c>
       <c r="C465" t="inlineStr">
